--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5248" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +777,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +824,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +870,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1181,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1228,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1274,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1342,10 +1354,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1389,28 +1401,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1435,28 +1447,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1515,10 +1527,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1562,28 +1574,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1608,28 +1620,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1688,10 +1700,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1735,28 +1747,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1781,28 +1793,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1948,10 +1960,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1995,28 +2007,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2041,28 +2053,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2121,10 +2133,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2168,28 +2180,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2214,28 +2226,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2294,10 +2306,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2341,28 +2353,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2387,28 +2399,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2467,10 +2479,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2514,28 +2526,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2560,28 +2572,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2640,10 +2652,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2687,28 +2699,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2733,28 +2745,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2813,10 +2825,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2860,28 +2872,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2906,28 +2918,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3044,10 +3056,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3091,28 +3103,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3137,28 +3149,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3217,10 +3229,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3264,28 +3276,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3310,28 +3322,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3390,10 +3402,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3437,28 +3449,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3483,28 +3495,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3563,10 +3575,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3610,28 +3622,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3656,28 +3668,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3794,10 +3806,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3841,28 +3853,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3887,28 +3899,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3967,10 +3979,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4014,28 +4026,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4060,28 +4072,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4140,10 +4152,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4187,28 +4199,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4233,28 +4245,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4400,10 +4412,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4447,28 +4459,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4493,28 +4505,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4573,10 +4585,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4620,28 +4632,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4666,28 +4678,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4833,10 +4845,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4880,28 +4892,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4926,28 +4938,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5006,10 +5018,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5053,28 +5065,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5099,28 +5111,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5237,10 +5249,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5284,28 +5296,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5330,28 +5342,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5410,10 +5422,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="2" t="s">
+      <c r="J183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5457,28 +5469,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="2">
+      <c r="A185" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="2">
+      <c r="C185" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5503,28 +5515,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="2">
+      <c r="C187" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="2">
+      <c r="D187" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="2">
+      <c r="I187" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5583,10 +5595,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5630,28 +5642,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5676,28 +5688,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5756,10 +5768,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5803,28 +5815,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5849,28 +5861,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5929,10 +5941,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="2" t="s">
+      <c r="J201" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5976,28 +5988,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="2">
+      <c r="A203" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="2">
+      <c r="C203" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6022,28 +6034,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="2">
+      <c r="C205" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="2">
+      <c r="D205" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="2">
+      <c r="I205" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6102,10 +6114,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6149,28 +6161,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6195,28 +6207,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6275,10 +6287,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6322,28 +6334,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6368,28 +6380,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6448,10 +6460,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6495,28 +6507,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6541,28 +6553,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6621,10 +6633,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6668,28 +6680,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6714,28 +6726,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6852,10 +6864,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6899,28 +6911,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6945,28 +6957,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7025,10 +7037,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7072,28 +7084,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7118,28 +7130,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7198,10 +7210,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7245,28 +7257,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7291,28 +7303,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7371,10 +7383,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7418,28 +7430,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7464,28 +7476,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7544,10 +7556,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7591,28 +7603,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7637,28 +7649,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7717,10 +7729,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7764,28 +7776,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7810,28 +7822,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7890,10 +7902,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="2" t="s">
+      <c r="J269" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7937,28 +7949,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="2">
+      <c r="A271" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="C271" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7983,28 +7995,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="2">
+      <c r="C273" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="2">
+      <c r="D273" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="2">
+      <c r="I273" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8063,10 +8075,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8110,28 +8122,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8156,28 +8168,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8236,10 +8248,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8283,28 +8295,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8329,28 +8341,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8409,10 +8421,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="2" t="s">
+      <c r="J287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8456,28 +8468,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="A289" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="2">
+      <c r="C289" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8502,28 +8514,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="2">
+      <c r="C291" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="2">
+      <c r="D291" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="2">
+      <c r="I291" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8582,10 +8594,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8629,28 +8641,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8675,28 +8687,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8755,10 +8767,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="2" t="s">
+      <c r="J299" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8802,28 +8814,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="2">
+      <c r="A301" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="2">
+      <c r="C301" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8848,28 +8860,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="2">
+      <c r="B303" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="2">
+      <c r="C303" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="2">
+      <c r="D303" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="2">
+      <c r="E303" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="2">
+      <c r="F303" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="2">
+      <c r="G303" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="2">
+      <c r="H303" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="2">
+      <c r="I303" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8928,10 +8940,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="2" t="s">
+      <c r="J305" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8975,28 +8987,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="2">
+      <c r="A307" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="2">
+      <c r="C307" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9021,28 +9033,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="2">
+      <c r="C309" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="2">
+      <c r="D309" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="2">
+      <c r="I309" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9101,10 +9113,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9148,28 +9160,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9194,28 +9206,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9274,10 +9286,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9321,28 +9333,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9367,28 +9379,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9447,10 +9459,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9494,28 +9506,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9540,28 +9552,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9620,10 +9632,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9667,28 +9679,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9713,28 +9725,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9793,10 +9805,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9840,28 +9852,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9886,28 +9898,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9966,10 +9978,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10013,28 +10025,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="2">
+      <c r="A343" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="2">
+      <c r="C343" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10059,28 +10071,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="2">
+      <c r="C345" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="2">
+      <c r="D345" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="2">
+      <c r="I345" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10139,10 +10151,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="2" t="s">
+      <c r="J347" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10186,28 +10198,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="2">
+      <c r="A349" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="2">
+      <c r="C349" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10232,28 +10244,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="2">
+      <c r="C351" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="2">
+      <c r="D351" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="2">
+      <c r="I351" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10399,10 +10411,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="2" t="s">
+      <c r="J356" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
@@ -10446,28 +10458,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="2">
+      <c r="A358" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C358" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s" s="2">
+      <c r="C358" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10492,28 +10504,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C360" t="s" s="2">
+      <c r="C360" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D360" t="s" s="2">
+      <c r="D360" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I360" t="s" s="2">
+      <c r="I360" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10572,10 +10584,10 @@
       <c r="I362">
         <f>((C362-C361)^2+(D362- D361)^2)^.5</f>
       </c>
-      <c r="J362" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K362" s="2" t="s">
+      <c r="J362" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K362" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L362" t="n">
@@ -10619,28 +10631,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="s" s="2">
+      <c r="A364" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C364" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D364" t="s" s="2">
+      <c r="C364" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D364" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10665,28 +10677,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="B366" t="s" s="2">
+      <c r="B366" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C366" t="s" s="2">
+      <c r="C366" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D366" t="s" s="2">
+      <c r="D366" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E366" t="s" s="2">
+      <c r="E366" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F366" t="s" s="2">
+      <c r="F366" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G366" t="s" s="2">
+      <c r="G366" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H366" t="s" s="2">
+      <c r="H366" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I366" t="s" s="2">
+      <c r="I366" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10745,10 +10757,10 @@
       <c r="I368">
         <f>((C368-C367)^2+(D368- D367)^2)^.5</f>
       </c>
-      <c r="J368" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K368" s="2" t="s">
+      <c r="J368" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K368" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L368" t="n">
@@ -10792,28 +10804,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="s" s="2">
+      <c r="A370" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B370" t="s" s="2">
+      <c r="B370" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C370" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D370" t="s" s="2">
+      <c r="C370" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D370" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E370" t="s" s="2">
+      <c r="E370" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F370" t="s" s="2">
+      <c r="F370" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G370" t="s" s="2">
+      <c r="G370" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H370" t="s" s="2">
+      <c r="H370" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10838,28 +10850,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="B372" t="s" s="2">
+      <c r="B372" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C372" t="s" s="2">
+      <c r="C372" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D372" t="s" s="2">
+      <c r="D372" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E372" t="s" s="2">
+      <c r="E372" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F372" t="s" s="2">
+      <c r="F372" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G372" t="s" s="2">
+      <c r="G372" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H372" t="s" s="2">
+      <c r="H372" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I372" t="s" s="2">
+      <c r="I372" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10918,10 +10930,10 @@
       <c r="I374">
         <f>((C374-C373)^2+(D374- D373)^2)^.5</f>
       </c>
-      <c r="J374" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K374" s="2" t="s">
+      <c r="J374" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K374" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L374" t="n">
@@ -10965,28 +10977,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="s" s="2">
+      <c r="A376" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B376" t="s" s="2">
+      <c r="B376" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C376" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D376" t="s" s="2">
+      <c r="C376" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E376" t="s" s="2">
+      <c r="E376" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F376" t="s" s="2">
+      <c r="F376" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G376" t="s" s="2">
+      <c r="G376" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H376" t="s" s="2">
+      <c r="H376" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11011,28 +11023,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="B378" t="s" s="2">
+      <c r="B378" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C378" t="s" s="2">
+      <c r="C378" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D378" t="s" s="2">
+      <c r="D378" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E378" t="s" s="2">
+      <c r="E378" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F378" t="s" s="2">
+      <c r="F378" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G378" t="s" s="2">
+      <c r="G378" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H378" t="s" s="2">
+      <c r="H378" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I378" t="s" s="2">
+      <c r="I378" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11091,10 +11103,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="2" t="s">
+      <c r="J380" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11138,28 +11150,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="2">
+      <c r="A382" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="2">
+      <c r="B382" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="2">
+      <c r="C382" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="2">
+      <c r="E382" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="2">
+      <c r="F382" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="2">
+      <c r="G382" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="2">
+      <c r="H382" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11184,28 +11196,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="2">
+      <c r="B384" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="2">
+      <c r="C384" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="2">
+      <c r="D384" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="2">
+      <c r="E384" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="2">
+      <c r="F384" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="2">
+      <c r="G384" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="2">
+      <c r="H384" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="2">
+      <c r="I384" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11264,10 +11276,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="2" t="s">
+      <c r="J386" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11311,28 +11323,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="2">
+      <c r="A388" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="2">
+      <c r="B388" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="2">
+      <c r="C388" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="2">
+      <c r="E388" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="2">
+      <c r="F388" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="2">
+      <c r="G388" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="2">
+      <c r="H388" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11357,28 +11369,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="2">
+      <c r="C390" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="2">
+      <c r="D390" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="2">
+      <c r="I390" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11437,10 +11449,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="2" t="s">
+      <c r="J392" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11484,28 +11496,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="2">
+      <c r="A394" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="2">
+      <c r="B394" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="2">
+      <c r="C394" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="2">
+      <c r="E394" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="2">
+      <c r="F394" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="2">
+      <c r="G394" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="2">
+      <c r="H394" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11530,28 +11542,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="2">
+      <c r="C396" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="2">
+      <c r="D396" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="2">
+      <c r="I396" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11610,10 +11622,10 @@
       <c r="I398">
         <f>((C398-C397)^2+(D398- D397)^2)^.5</f>
       </c>
-      <c r="J398" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K398" s="2" t="s">
+      <c r="J398" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K398" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L398" t="n">
@@ -11657,28 +11669,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="s" s="2">
+      <c r="A400" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B400" t="s" s="2">
+      <c r="B400" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C400" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D400" t="s" s="2">
+      <c r="C400" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E400" t="s" s="2">
+      <c r="E400" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F400" t="s" s="2">
+      <c r="F400" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G400" t="s" s="2">
+      <c r="G400" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H400" t="s" s="2">
+      <c r="H400" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11703,28 +11715,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C402" t="s" s="2">
+      <c r="C402" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D402" t="s" s="2">
+      <c r="D402" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I402" t="s" s="2">
+      <c r="I402" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11783,10 +11795,10 @@
       <c r="I404">
         <f>((C404-C403)^2+(D404- D403)^2)^.5</f>
       </c>
-      <c r="J404" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K404" s="2" t="s">
+      <c r="J404" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K404" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L404" t="n">
@@ -11830,28 +11842,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="s" s="2">
+      <c r="A406" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B406" t="s" s="2">
+      <c r="B406" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C406" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D406" t="s" s="2">
+      <c r="C406" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D406" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E406" t="s" s="2">
+      <c r="E406" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F406" t="s" s="2">
+      <c r="F406" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G406" t="s" s="2">
+      <c r="G406" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H406" t="s" s="2">
+      <c r="H406" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11876,28 +11888,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="B408" t="s" s="2">
+      <c r="B408" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C408" t="s" s="2">
+      <c r="C408" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D408" t="s" s="2">
+      <c r="D408" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E408" t="s" s="2">
+      <c r="E408" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F408" t="s" s="2">
+      <c r="F408" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G408" t="s" s="2">
+      <c r="G408" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H408" t="s" s="2">
+      <c r="H408" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I408" t="s" s="2">
+      <c r="I408" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11956,10 +11968,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="2" t="s">
+      <c r="J410" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12003,28 +12015,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="2">
+      <c r="A412" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="2">
+      <c r="B412" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="2">
+      <c r="C412" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="2">
+      <c r="E412" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="2">
+      <c r="F412" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="2">
+      <c r="G412" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="2">
+      <c r="H412" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12049,28 +12061,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="2">
+      <c r="B414" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="2">
+      <c r="C414" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="2">
+      <c r="D414" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="2">
+      <c r="E414" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="2">
+      <c r="F414" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="2">
+      <c r="G414" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="2">
+      <c r="H414" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="2">
+      <c r="I414" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12129,10 +12141,10 @@
       <c r="I416">
         <f>((C416-C415)^2+(D416- D415)^2)^.5</f>
       </c>
-      <c r="J416" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K416" s="2" t="s">
+      <c r="J416" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K416" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L416" t="n">
@@ -12176,28 +12188,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s" s="2">
+      <c r="A418" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B418" t="s" s="2">
+      <c r="B418" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C418" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D418" t="s" s="2">
+      <c r="C418" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D418" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E418" t="s" s="2">
+      <c r="E418" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F418" t="s" s="2">
+      <c r="F418" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G418" t="s" s="2">
+      <c r="G418" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H418" t="s" s="2">
+      <c r="H418" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12222,28 +12234,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="B420" t="s" s="2">
+      <c r="B420" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C420" t="s" s="2">
+      <c r="C420" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D420" t="s" s="2">
+      <c r="D420" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E420" t="s" s="2">
+      <c r="E420" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F420" t="s" s="2">
+      <c r="F420" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G420" t="s" s="2">
+      <c r="G420" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H420" t="s" s="2">
+      <c r="H420" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I420" t="s" s="2">
+      <c r="I420" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12302,10 +12314,10 @@
       <c r="I422">
         <f>((C422-C421)^2+(D422- D421)^2)^.5</f>
       </c>
-      <c r="J422" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K422" s="2" t="s">
+      <c r="J422" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K422" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L422" t="n">
@@ -12349,28 +12361,28 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="s" s="2">
+      <c r="A424" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B424" t="s" s="2">
+      <c r="B424" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C424" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D424" t="s" s="2">
+      <c r="C424" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D424" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E424" t="s" s="2">
+      <c r="E424" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F424" t="s" s="2">
+      <c r="F424" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G424" t="s" s="2">
+      <c r="G424" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H424" t="s" s="2">
+      <c r="H424" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12395,28 +12407,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="B426" t="s" s="2">
+      <c r="B426" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C426" t="s" s="2">
+      <c r="C426" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D426" t="s" s="2">
+      <c r="D426" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E426" t="s" s="2">
+      <c r="E426" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F426" t="s" s="2">
+      <c r="F426" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G426" t="s" s="2">
+      <c r="G426" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H426" t="s" s="2">
+      <c r="H426" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I426" t="s" s="2">
+      <c r="I426" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12533,10 +12545,10 @@
       <c r="I430">
         <f>((C430-C429)^2+(D430- D429)^2)^.5</f>
       </c>
-      <c r="J430" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K430" s="2" t="s">
+      <c r="J430" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K430" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L430" t="n">
@@ -12580,28 +12592,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="s" s="2">
+      <c r="A432" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B432" t="s" s="2">
+      <c r="B432" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C432" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D432" t="s" s="2">
+      <c r="C432" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E432" t="s" s="2">
+      <c r="E432" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F432" t="s" s="2">
+      <c r="F432" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G432" t="s" s="2">
+      <c r="G432" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H432" t="s" s="2">
+      <c r="H432" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12626,28 +12638,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="B434" t="s" s="2">
+      <c r="B434" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C434" t="s" s="2">
+      <c r="C434" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D434" t="s" s="2">
+      <c r="D434" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E434" t="s" s="2">
+      <c r="E434" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F434" t="s" s="2">
+      <c r="F434" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G434" t="s" s="2">
+      <c r="G434" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H434" t="s" s="2">
+      <c r="H434" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I434" t="s" s="2">
+      <c r="I434" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12735,10 +12747,10 @@
       <c r="I437">
         <f>((C437-C436)^2+(D437- D436)^2)^.5</f>
       </c>
-      <c r="J437" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K437" s="2" t="s">
+      <c r="J437" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K437" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L437" t="n">
@@ -12782,28 +12794,28 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="s" s="2">
+      <c r="A439" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B439" t="s" s="2">
+      <c r="B439" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C439" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D439" t="s" s="2">
+      <c r="C439" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D439" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E439" t="s" s="2">
+      <c r="E439" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F439" t="s" s="2">
+      <c r="F439" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G439" t="s" s="2">
+      <c r="G439" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H439" t="s" s="2">
+      <c r="H439" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12828,28 +12840,28 @@
       </c>
     </row>
     <row r="441">
-      <c r="B441" t="s" s="2">
+      <c r="B441" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C441" t="s" s="2">
+      <c r="C441" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D441" t="s" s="2">
+      <c r="D441" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E441" t="s" s="2">
+      <c r="E441" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F441" t="s" s="2">
+      <c r="F441" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G441" t="s" s="2">
+      <c r="G441" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H441" t="s" s="2">
+      <c r="H441" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I441" t="s" s="2">
+      <c r="I441" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12908,10 +12920,10 @@
       <c r="I443">
         <f>((C443-C442)^2+(D443- D442)^2)^.5</f>
       </c>
-      <c r="J443" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K443" s="2" t="s">
+      <c r="J443" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K443" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L443" t="n">
@@ -12955,28 +12967,28 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="s" s="2">
+      <c r="A445" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B445" t="s" s="2">
+      <c r="B445" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C445" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D445" t="s" s="2">
+      <c r="C445" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D445" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E445" t="s" s="2">
+      <c r="E445" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F445" t="s" s="2">
+      <c r="F445" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G445" t="s" s="2">
+      <c r="G445" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H445" t="s" s="2">
+      <c r="H445" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13001,28 +13013,28 @@
       </c>
     </row>
     <row r="447">
-      <c r="B447" t="s" s="2">
+      <c r="B447" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C447" t="s" s="2">
+      <c r="C447" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D447" t="s" s="2">
+      <c r="D447" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E447" t="s" s="2">
+      <c r="E447" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F447" t="s" s="2">
+      <c r="F447" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G447" t="s" s="2">
+      <c r="G447" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H447" t="s" s="2">
+      <c r="H447" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I447" t="s" s="2">
+      <c r="I447" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13081,10 +13093,10 @@
       <c r="I449">
         <f>((C449-C448)^2+(D449- D448)^2)^.5</f>
       </c>
-      <c r="J449" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K449" s="2" t="s">
+      <c r="J449" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K449" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L449" t="n">
@@ -13128,28 +13140,28 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="s" s="2">
+      <c r="A451" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B451" t="s" s="2">
+      <c r="B451" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C451" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D451" t="s" s="2">
+      <c r="C451" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D451" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E451" t="s" s="2">
+      <c r="E451" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F451" t="s" s="2">
+      <c r="F451" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G451" t="s" s="2">
+      <c r="G451" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H451" t="s" s="2">
+      <c r="H451" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13174,28 +13186,28 @@
       </c>
     </row>
     <row r="453">
-      <c r="B453" t="s" s="2">
+      <c r="B453" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C453" t="s" s="2">
+      <c r="C453" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D453" t="s" s="2">
+      <c r="D453" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E453" t="s" s="2">
+      <c r="E453" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F453" t="s" s="2">
+      <c r="F453" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G453" t="s" s="2">
+      <c r="G453" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H453" t="s" s="2">
+      <c r="H453" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I453" t="s" s="2">
+      <c r="I453" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13254,10 +13266,10 @@
       <c r="I455">
         <f>((C455-C454)^2+(D455- D454)^2)^.5</f>
       </c>
-      <c r="J455" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K455" s="2" t="s">
+      <c r="J455" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K455" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L455" t="n">
@@ -13301,28 +13313,28 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="s" s="2">
+      <c r="A457" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B457" t="s" s="2">
+      <c r="B457" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C457" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D457" t="s" s="2">
+      <c r="C457" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D457" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E457" t="s" s="2">
+      <c r="E457" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F457" t="s" s="2">
+      <c r="F457" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G457" t="s" s="2">
+      <c r="G457" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H457" t="s" s="2">
+      <c r="H457" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -13347,28 +13359,28 @@
       </c>
     </row>
     <row r="459">
-      <c r="B459" t="s" s="2">
+      <c r="B459" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C459" t="s" s="2">
+      <c r="C459" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D459" t="s" s="2">
+      <c r="D459" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E459" t="s" s="2">
+      <c r="E459" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F459" t="s" s="2">
+      <c r="F459" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G459" t="s" s="2">
+      <c r="G459" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H459" t="s" s="2">
+      <c r="H459" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I459" t="s" s="2">
+      <c r="I459" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -13427,10 +13439,10 @@
       <c r="I461">
         <f>((C461-C460)^2+(D461- D460)^2)^.5</f>
       </c>
-      <c r="J461" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K461" s="2" t="s">
+      <c r="J461" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K461" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L461" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5248" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15744" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -344,10 +392,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="J7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -391,28 +439,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="4">
+      <c r="A9" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="4">
+      <c r="C9" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="4">
+      <c r="E9" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="4">
+      <c r="F9" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -437,28 +485,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -604,10 +652,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="J16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -651,28 +699,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="4">
+      <c r="C18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -697,28 +745,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="4">
+      <c r="I20" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -777,10 +825,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="4" t="s">
+      <c r="J22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -824,28 +872,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="4">
+      <c r="A24" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="4">
+      <c r="C24" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="4">
+      <c r="G24" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="4">
+      <c r="H24" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -870,28 +918,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="4">
+      <c r="D26" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="4">
+      <c r="I26" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1008,10 +1056,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="J30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1055,28 +1103,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="4">
+      <c r="A32" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="4">
+      <c r="C32" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1101,28 +1149,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="4">
+      <c r="I34" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1181,10 +1229,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="J36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1228,28 +1276,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="4">
+      <c r="A38" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="4">
+      <c r="C38" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="4">
+      <c r="G38" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="4">
+      <c r="H38" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1274,28 +1322,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="C40" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="4">
+      <c r="D40" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="4">
+      <c r="I40" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1354,10 +1402,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="4" t="s">
+      <c r="J42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1401,28 +1449,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="4">
+      <c r="A44" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="4">
+      <c r="C44" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1447,28 +1495,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="4">
+      <c r="B46" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="4">
+      <c r="C46" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="4">
+      <c r="D46" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="4">
+      <c r="E46" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="4">
+      <c r="F46" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="4">
+      <c r="G46" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="4">
+      <c r="H46" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="4">
+      <c r="I46" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1527,10 +1575,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="J48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1574,28 +1622,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="4">
+      <c r="A50" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="4">
+      <c r="C50" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1620,28 +1668,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="4">
+      <c r="C52" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="4">
+      <c r="D52" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="4">
+      <c r="I52" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1700,10 +1748,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="4" t="s">
+      <c r="J54" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1747,28 +1795,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="4">
+      <c r="A56" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="4">
+      <c r="B56" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="4">
+      <c r="C56" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="4">
+      <c r="E56" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="4">
+      <c r="F56" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="4">
+      <c r="G56" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="4">
+      <c r="H56" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1793,28 +1841,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="4">
+      <c r="C58" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="4">
+      <c r="D58" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="4">
+      <c r="I58" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1960,10 +2008,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="4" t="s">
+      <c r="J63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2007,28 +2055,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="4">
+      <c r="A65" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="4">
+      <c r="B65" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="4">
+      <c r="C65" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="4">
+      <c r="E65" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="4">
+      <c r="F65" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="4">
+      <c r="G65" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="4">
+      <c r="H65" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2053,28 +2101,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="4">
+      <c r="B67" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="4">
+      <c r="C67" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="4">
+      <c r="D67" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="4">
+      <c r="E67" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="4">
+      <c r="F67" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="4">
+      <c r="G67" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="4">
+      <c r="H67" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="4">
+      <c r="I67" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2133,10 +2181,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="4" t="s">
+      <c r="J69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2180,28 +2228,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="4">
+      <c r="A71" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="4">
+      <c r="C71" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2226,28 +2274,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="4">
+      <c r="D73" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="4">
+      <c r="I73" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2306,10 +2354,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="4" t="s">
+      <c r="J75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2353,28 +2401,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="4">
+      <c r="A77" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="4">
+      <c r="C77" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="4">
+      <c r="G77" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="4">
+      <c r="H77" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2399,28 +2447,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="4">
+      <c r="C79" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="4">
+      <c r="D79" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="4">
+      <c r="G79" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="4">
+      <c r="H79" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="4">
+      <c r="I79" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2479,10 +2527,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="4" t="s">
+      <c r="J81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2526,28 +2574,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="4">
+      <c r="A83" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="4">
+      <c r="C83" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2572,28 +2620,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="4">
+      <c r="D85" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="4">
+      <c r="E85" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="4">
+      <c r="F85" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="4">
+      <c r="G85" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="4">
+      <c r="H85" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="4">
+      <c r="I85" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2652,10 +2700,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="4" t="s">
+      <c r="J87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2699,28 +2747,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="4">
+      <c r="C89" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2745,28 +2793,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="4">
+      <c r="D91" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="4">
+      <c r="G91" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="4">
+      <c r="H91" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="4">
+      <c r="I91" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2825,10 +2873,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="4" t="s">
+      <c r="J93" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2872,28 +2920,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="4">
+      <c r="A95" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="4">
+      <c r="C95" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="4">
+      <c r="G95" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="4">
+      <c r="H95" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2918,28 +2966,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="4">
+      <c r="C97" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="4">
+      <c r="D97" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="4">
+      <c r="I97" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3056,10 +3104,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="4" t="s">
+      <c r="J101" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3103,28 +3151,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="4">
+      <c r="A103" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="4">
+      <c r="C103" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3149,28 +3197,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="4">
+      <c r="B105" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="4">
+      <c r="C105" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="4">
+      <c r="D105" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="4">
+      <c r="E105" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="4">
+      <c r="F105" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="4">
+      <c r="G105" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="4">
+      <c r="H105" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="4">
+      <c r="I105" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3229,10 +3277,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="4" t="s">
+      <c r="J107" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3276,28 +3324,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="4">
+      <c r="A109" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="4">
+      <c r="C109" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="4">
+      <c r="G109" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="4">
+      <c r="H109" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3322,28 +3370,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="4">
+      <c r="C111" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="4">
+      <c r="D111" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="4">
+      <c r="E111" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="4">
+      <c r="F111" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="4">
+      <c r="G111" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="4">
+      <c r="H111" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="4">
+      <c r="I111" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3402,10 +3450,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="4" t="s">
+      <c r="J113" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3449,28 +3497,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="4">
+      <c r="A115" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="4">
+      <c r="C115" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3495,28 +3543,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="4">
+      <c r="C117" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="4">
+      <c r="D117" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="4">
+      <c r="I117" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3575,10 +3623,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="4" t="s">
+      <c r="J119" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3622,28 +3670,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="4">
+      <c r="A121" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="4">
+      <c r="C121" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3668,28 +3716,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="4">
+      <c r="C123" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="4">
+      <c r="D123" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="4">
+      <c r="G123" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="4">
+      <c r="H123" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="4">
+      <c r="I123" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3806,10 +3854,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="4" t="s">
+      <c r="J127" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3853,28 +3901,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="4">
+      <c r="A129" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="4">
+      <c r="C129" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="4">
+      <c r="G129" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="4">
+      <c r="H129" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3899,28 +3947,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="4">
+      <c r="C131" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="4">
+      <c r="D131" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="4">
+      <c r="E131" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="4">
+      <c r="F131" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="4">
+      <c r="G131" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="4">
+      <c r="H131" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="4">
+      <c r="I131" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3979,10 +4027,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="4" t="s">
+      <c r="J133" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4026,28 +4074,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="4">
+      <c r="A135" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="4">
+      <c r="C135" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4072,28 +4120,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="4">
+      <c r="B137" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="4">
+      <c r="C137" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="4">
+      <c r="D137" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="4">
+      <c r="E137" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="4">
+      <c r="F137" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="4">
+      <c r="G137" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="4">
+      <c r="H137" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="4">
+      <c r="I137" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4152,10 +4200,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="4" t="s">
+      <c r="J139" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4199,28 +4247,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="4">
+      <c r="A141" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="4">
+      <c r="C141" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4245,28 +4293,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="4">
+      <c r="B143" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="4">
+      <c r="C143" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="4">
+      <c r="D143" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="4">
+      <c r="E143" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="4">
+      <c r="F143" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="4">
+      <c r="G143" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="4">
+      <c r="H143" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="4">
+      <c r="I143" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4412,10 +4460,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="4" t="s">
+      <c r="J148" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4459,28 +4507,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="4">
+      <c r="A150" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="4">
+      <c r="B150" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="4">
+      <c r="C150" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="4">
+      <c r="E150" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="4">
+      <c r="F150" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="4">
+      <c r="G150" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="4">
+      <c r="H150" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4505,28 +4553,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="4">
+      <c r="C152" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="4">
+      <c r="D152" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="4">
+      <c r="I152" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4585,10 +4633,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="4" t="s">
+      <c r="J154" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4632,28 +4680,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="4">
+      <c r="A156" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="4">
+      <c r="C156" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4678,28 +4726,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="4">
+      <c r="C158" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="4">
+      <c r="D158" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="4">
+      <c r="I158" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4845,10 +4893,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="4" t="s">
+      <c r="J163" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4892,28 +4940,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="4">
+      <c r="A165" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="4">
+      <c r="C165" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="4">
+      <c r="E165" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="4">
+      <c r="F165" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="4">
+      <c r="G165" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="4">
+      <c r="H165" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4938,28 +4986,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="4">
+      <c r="B167" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="4">
+      <c r="C167" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="4">
+      <c r="D167" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="4">
+      <c r="E167" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="4">
+      <c r="F167" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="4">
+      <c r="G167" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="4">
+      <c r="H167" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="4">
+      <c r="I167" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5018,10 +5066,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="4" t="s">
+      <c r="J169" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5065,28 +5113,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="4">
+      <c r="A171" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="4">
+      <c r="B171" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="4">
+      <c r="C171" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="4">
+      <c r="E171" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="4">
+      <c r="F171" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="4">
+      <c r="G171" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="4">
+      <c r="H171" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5111,28 +5159,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="4">
+      <c r="B173" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="4">
+      <c r="C173" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="4">
+      <c r="D173" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="4">
+      <c r="E173" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="4">
+      <c r="F173" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="4">
+      <c r="G173" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="4">
+      <c r="H173" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="4">
+      <c r="I173" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5249,10 +5297,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="4" t="s">
+      <c r="J177" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5296,28 +5344,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="4">
+      <c r="A179" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="4">
+      <c r="B179" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="4">
+      <c r="C179" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="4">
+      <c r="E179" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="4">
+      <c r="F179" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="4">
+      <c r="G179" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="4">
+      <c r="H179" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5342,28 +5390,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="4">
+      <c r="B181" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="4">
+      <c r="C181" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="4">
+      <c r="D181" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="4">
+      <c r="E181" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="4">
+      <c r="F181" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="4">
+      <c r="G181" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="4">
+      <c r="H181" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="4">
+      <c r="I181" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5422,10 +5470,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="4" t="s">
+      <c r="J183" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5469,28 +5517,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="4">
+      <c r="A185" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="4">
+      <c r="B185" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="4">
+      <c r="C185" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="4">
+      <c r="E185" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="4">
+      <c r="F185" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="4">
+      <c r="G185" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="4">
+      <c r="H185" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5515,28 +5563,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="4">
+      <c r="B187" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="4">
+      <c r="C187" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="4">
+      <c r="D187" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="4">
+      <c r="E187" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="4">
+      <c r="F187" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="4">
+      <c r="G187" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="4">
+      <c r="H187" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="4">
+      <c r="I187" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5595,10 +5643,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="4" t="s">
+      <c r="J189" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5642,28 +5690,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="4">
+      <c r="A191" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="4">
+      <c r="B191" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="4">
+      <c r="C191" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="4">
+      <c r="E191" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="4">
+      <c r="F191" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="4">
+      <c r="G191" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="4">
+      <c r="H191" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5688,28 +5736,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="4">
+      <c r="B193" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="4">
+      <c r="C193" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="4">
+      <c r="D193" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="4">
+      <c r="E193" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="4">
+      <c r="F193" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="4">
+      <c r="G193" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="4">
+      <c r="H193" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="4">
+      <c r="I193" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5768,10 +5816,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="4" t="s">
+      <c r="J195" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5815,28 +5863,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="4">
+      <c r="A197" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="4">
+      <c r="C197" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="4">
+      <c r="G197" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="4">
+      <c r="H197" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5861,28 +5909,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="4">
+      <c r="C199" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="4">
+      <c r="D199" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="4">
+      <c r="I199" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5941,10 +5989,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="4" t="s">
+      <c r="J201" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5988,28 +6036,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="4">
+      <c r="A203" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="4">
+      <c r="B203" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="4">
+      <c r="C203" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="4">
+      <c r="E203" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="4">
+      <c r="F203" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="4">
+      <c r="G203" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="4">
+      <c r="H203" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6034,28 +6082,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="4">
+      <c r="C205" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="4">
+      <c r="D205" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="4">
+      <c r="I205" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6114,10 +6162,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="4" t="s">
+      <c r="J207" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6161,28 +6209,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="4">
+      <c r="A209" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="4">
+      <c r="C209" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="4">
+      <c r="E209" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="4">
+      <c r="F209" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="4">
+      <c r="G209" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="4">
+      <c r="H209" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6207,28 +6255,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="4">
+      <c r="B211" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="4">
+      <c r="C211" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="4">
+      <c r="D211" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="4">
+      <c r="E211" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="4">
+      <c r="F211" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="4">
+      <c r="G211" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="4">
+      <c r="H211" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="4">
+      <c r="I211" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6287,10 +6335,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="4" t="s">
+      <c r="J213" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6334,28 +6382,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="4">
+      <c r="A215" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="4">
+      <c r="B215" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="4">
+      <c r="C215" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="4">
+      <c r="E215" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="4">
+      <c r="F215" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="4">
+      <c r="G215" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="4">
+      <c r="H215" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6380,28 +6428,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="4">
+      <c r="B217" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="4">
+      <c r="C217" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="4">
+      <c r="D217" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="4">
+      <c r="E217" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="4">
+      <c r="F217" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="4">
+      <c r="G217" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="4">
+      <c r="H217" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="4">
+      <c r="I217" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6460,10 +6508,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="4" t="s">
+      <c r="J219" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6507,28 +6555,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="4">
+      <c r="A221" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="4">
+      <c r="C221" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6553,28 +6601,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="4">
+      <c r="B223" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="4">
+      <c r="C223" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="4">
+      <c r="D223" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="4">
+      <c r="E223" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="4">
+      <c r="F223" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="4">
+      <c r="G223" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="4">
+      <c r="H223" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="4">
+      <c r="I223" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6633,10 +6681,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="4" t="s">
+      <c r="J225" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6680,28 +6728,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="4">
+      <c r="A227" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="4">
+      <c r="C227" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6726,28 +6774,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="4">
+      <c r="B229" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="4">
+      <c r="C229" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="4">
+      <c r="D229" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="4">
+      <c r="E229" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="4">
+      <c r="F229" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="4">
+      <c r="G229" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="4">
+      <c r="H229" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="4">
+      <c r="I229" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6864,10 +6912,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="4" t="s">
+      <c r="J233" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6911,28 +6959,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="4">
+      <c r="A235" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="4">
+      <c r="C235" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="4">
+      <c r="E235" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="4">
+      <c r="F235" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="4">
+      <c r="G235" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="4">
+      <c r="H235" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6957,28 +7005,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="4">
+      <c r="C237" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="4">
+      <c r="D237" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="4">
+      <c r="G237" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="4">
+      <c r="H237" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="4">
+      <c r="I237" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7037,10 +7085,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="4" t="s">
+      <c r="J239" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7084,28 +7132,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="4">
+      <c r="A241" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="4">
+      <c r="B241" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="4">
+      <c r="C241" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="4">
+      <c r="E241" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="4">
+      <c r="F241" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="4">
+      <c r="G241" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="4">
+      <c r="H241" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7130,28 +7178,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="4">
+      <c r="B243" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="4">
+      <c r="C243" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="4">
+      <c r="D243" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="4">
+      <c r="E243" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="4">
+      <c r="F243" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="4">
+      <c r="G243" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="4">
+      <c r="H243" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="4">
+      <c r="I243" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7210,10 +7258,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="4" t="s">
+      <c r="J245" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7257,28 +7305,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="4">
+      <c r="A247" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="4">
+      <c r="B247" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="4">
+      <c r="C247" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="4">
+      <c r="E247" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="4">
+      <c r="F247" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="4">
+      <c r="G247" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="4">
+      <c r="H247" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7303,28 +7351,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="4">
+      <c r="B249" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="4">
+      <c r="C249" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="4">
+      <c r="D249" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="4">
+      <c r="E249" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="4">
+      <c r="F249" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="4">
+      <c r="G249" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="4">
+      <c r="H249" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="4">
+      <c r="I249" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7383,10 +7431,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="4" t="s">
+      <c r="J251" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7430,28 +7478,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="4">
+      <c r="A253" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="4">
+      <c r="B253" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="4">
+      <c r="C253" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="4">
+      <c r="E253" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="4">
+      <c r="F253" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="4">
+      <c r="G253" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="4">
+      <c r="H253" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7476,28 +7524,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="4">
+      <c r="B255" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="4">
+      <c r="C255" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="4">
+      <c r="D255" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="4">
+      <c r="E255" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="4">
+      <c r="F255" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="4">
+      <c r="G255" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="4">
+      <c r="H255" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="4">
+      <c r="I255" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7556,10 +7604,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="4" t="s">
+      <c r="J257" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7603,28 +7651,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="4">
+      <c r="A259" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="4">
+      <c r="B259" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="4">
+      <c r="C259" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="4">
+      <c r="E259" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="4">
+      <c r="F259" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="4">
+      <c r="G259" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="4">
+      <c r="H259" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7649,28 +7697,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="4">
+      <c r="B261" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="4">
+      <c r="C261" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="4">
+      <c r="D261" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="4">
+      <c r="E261" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="4">
+      <c r="F261" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="4">
+      <c r="G261" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="4">
+      <c r="H261" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="4">
+      <c r="I261" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7729,10 +7777,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="4" t="s">
+      <c r="J263" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7776,28 +7824,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="4">
+      <c r="A265" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="4">
+      <c r="B265" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="4">
+      <c r="C265" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="4">
+      <c r="E265" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="4">
+      <c r="F265" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="4">
+      <c r="G265" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="4">
+      <c r="H265" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7822,28 +7870,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="4">
+      <c r="B267" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="4">
+      <c r="C267" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="4">
+      <c r="D267" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="4">
+      <c r="E267" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="4">
+      <c r="F267" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="4">
+      <c r="G267" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="4">
+      <c r="H267" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="4">
+      <c r="I267" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7902,10 +7950,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="4" t="s">
+      <c r="J269" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7949,28 +7997,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="4">
+      <c r="A271" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="4">
+      <c r="B271" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="4">
+      <c r="C271" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="4">
+      <c r="E271" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="4">
+      <c r="F271" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="4">
+      <c r="G271" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="4">
+      <c r="H271" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7995,28 +8043,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="4">
+      <c r="B273" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="4">
+      <c r="C273" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="4">
+      <c r="D273" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="4">
+      <c r="E273" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="4">
+      <c r="F273" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="4">
+      <c r="G273" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="4">
+      <c r="H273" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="4">
+      <c r="I273" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8075,10 +8123,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="4" t="s">
+      <c r="J275" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8122,28 +8170,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="4">
+      <c r="A277" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="4">
+      <c r="B277" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="4">
+      <c r="C277" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="4">
+      <c r="E277" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="4">
+      <c r="F277" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="4">
+      <c r="G277" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="4">
+      <c r="H277" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8168,28 +8216,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="4">
+      <c r="C279" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="4">
+      <c r="D279" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="4">
+      <c r="E279" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="4">
+      <c r="F279" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="4">
+      <c r="G279" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="4">
+      <c r="H279" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="4">
+      <c r="I279" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8248,10 +8296,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="4" t="s">
+      <c r="J281" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8295,28 +8343,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="4">
+      <c r="A283" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="4">
+      <c r="B283" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="4">
+      <c r="C283" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="4">
+      <c r="E283" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="4">
+      <c r="F283" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="4">
+      <c r="G283" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="4">
+      <c r="H283" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8341,28 +8389,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="4">
+      <c r="B285" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="4">
+      <c r="C285" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="4">
+      <c r="D285" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="4">
+      <c r="E285" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="4">
+      <c r="F285" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="4">
+      <c r="G285" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="4">
+      <c r="H285" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="4">
+      <c r="I285" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8421,10 +8469,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="4" t="s">
+      <c r="J287" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8468,28 +8516,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="4">
+      <c r="A289" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="4">
+      <c r="B289" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="4">
+      <c r="C289" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="4">
+      <c r="E289" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="4">
+      <c r="F289" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="4">
+      <c r="G289" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="4">
+      <c r="H289" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8514,28 +8562,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="4">
+      <c r="B291" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="4">
+      <c r="C291" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="4">
+      <c r="D291" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="4">
+      <c r="E291" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="4">
+      <c r="F291" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="4">
+      <c r="G291" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="4">
+      <c r="H291" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="4">
+      <c r="I291" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8594,10 +8642,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="4" t="s">
+      <c r="J293" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8641,28 +8689,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="4">
+      <c r="A295" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="4">
+      <c r="B295" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="4">
+      <c r="C295" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="4">
+      <c r="E295" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="4">
+      <c r="F295" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="4">
+      <c r="G295" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="4">
+      <c r="H295" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8687,28 +8735,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="4">
+      <c r="B297" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="4">
+      <c r="C297" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="4">
+      <c r="D297" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="4">
+      <c r="E297" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="4">
+      <c r="F297" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="4">
+      <c r="G297" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="4">
+      <c r="H297" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="4">
+      <c r="I297" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8767,10 +8815,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="4" t="s">
+      <c r="J299" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8814,28 +8862,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="4">
+      <c r="A301" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="4">
+      <c r="B301" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="4">
+      <c r="C301" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="4">
+      <c r="E301" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="4">
+      <c r="F301" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="4">
+      <c r="G301" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="4">
+      <c r="H301" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8860,28 +8908,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="4">
+      <c r="B303" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="4">
+      <c r="C303" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="4">
+      <c r="D303" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="4">
+      <c r="E303" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="4">
+      <c r="F303" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="4">
+      <c r="G303" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="4">
+      <c r="H303" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="4">
+      <c r="I303" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8940,10 +8988,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="4" t="s">
+      <c r="J305" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8987,28 +9035,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="4">
+      <c r="A307" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="4">
+      <c r="C307" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="4">
+      <c r="E307" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="4">
+      <c r="F307" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="4">
+      <c r="G307" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="4">
+      <c r="H307" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9033,28 +9081,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="4">
+      <c r="B309" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="4">
+      <c r="C309" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="4">
+      <c r="D309" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="4">
+      <c r="E309" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="4">
+      <c r="F309" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="4">
+      <c r="G309" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="4">
+      <c r="H309" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="4">
+      <c r="I309" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9113,10 +9161,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="4" t="s">
+      <c r="J311" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9160,28 +9208,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="4">
+      <c r="A313" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="4">
+      <c r="C313" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9206,28 +9254,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="4">
+      <c r="B315" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="4">
+      <c r="C315" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="4">
+      <c r="D315" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="4">
+      <c r="E315" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="4">
+      <c r="F315" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="4">
+      <c r="G315" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="4">
+      <c r="H315" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="4">
+      <c r="I315" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9286,10 +9334,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="4" t="s">
+      <c r="J317" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9333,28 +9381,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="4">
+      <c r="A319" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="4">
+      <c r="C319" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="4">
+      <c r="E319" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="4">
+      <c r="F319" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="4">
+      <c r="G319" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="4">
+      <c r="H319" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9379,28 +9427,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="4">
+      <c r="B321" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="4">
+      <c r="C321" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="4">
+      <c r="D321" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="4">
+      <c r="E321" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="4">
+      <c r="F321" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="4">
+      <c r="G321" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="4">
+      <c r="H321" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="4">
+      <c r="I321" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9459,10 +9507,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="4" t="s">
+      <c r="J323" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9506,28 +9554,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="4">
+      <c r="A325" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="4">
+      <c r="B325" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="4">
+      <c r="C325" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="4">
+      <c r="E325" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="4">
+      <c r="F325" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="4">
+      <c r="G325" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="4">
+      <c r="H325" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9552,28 +9600,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="4">
+      <c r="B327" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="4">
+      <c r="C327" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="4">
+      <c r="D327" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="4">
+      <c r="E327" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="4">
+      <c r="F327" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="4">
+      <c r="G327" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="4">
+      <c r="H327" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="4">
+      <c r="I327" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9632,10 +9680,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="4" t="s">
+      <c r="J329" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9679,28 +9727,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="4">
+      <c r="A331" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="4">
+      <c r="B331" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="4">
+      <c r="C331" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="4">
+      <c r="E331" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="4">
+      <c r="F331" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="4">
+      <c r="G331" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="4">
+      <c r="H331" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9725,28 +9773,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="4">
+      <c r="B333" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="4">
+      <c r="C333" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="4">
+      <c r="D333" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="4">
+      <c r="E333" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="4">
+      <c r="F333" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="4">
+      <c r="G333" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="4">
+      <c r="H333" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="4">
+      <c r="I333" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9805,10 +9853,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="4" t="s">
+      <c r="J335" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9852,28 +9900,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="4">
+      <c r="A337" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="4">
+      <c r="B337" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="4">
+      <c r="C337" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="4">
+      <c r="E337" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="4">
+      <c r="F337" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="4">
+      <c r="G337" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="4">
+      <c r="H337" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9898,28 +9946,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="4">
+      <c r="B339" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="4">
+      <c r="C339" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="4">
+      <c r="D339" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="4">
+      <c r="E339" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="4">
+      <c r="F339" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="4">
+      <c r="G339" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="4">
+      <c r="H339" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="4">
+      <c r="I339" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9978,10 +10026,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="4" t="s">
+      <c r="J341" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10025,28 +10073,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="4">
+      <c r="A343" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="4">
+      <c r="B343" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="4">
+      <c r="C343" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="4">
+      <c r="E343" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="4">
+      <c r="F343" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="4">
+      <c r="G343" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="4">
+      <c r="H343" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10071,28 +10119,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="4">
+      <c r="B345" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="4">
+      <c r="C345" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="4">
+      <c r="D345" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="4">
+      <c r="E345" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="4">
+      <c r="F345" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="4">
+      <c r="G345" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="4">
+      <c r="H345" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="4">
+      <c r="I345" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10151,10 +10199,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="4" t="s">
+      <c r="J347" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10198,28 +10246,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="4">
+      <c r="A349" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="4">
+      <c r="B349" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="4">
+      <c r="C349" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="4">
+      <c r="E349" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="4">
+      <c r="F349" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="4">
+      <c r="G349" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="4">
+      <c r="H349" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10244,28 +10292,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="4">
+      <c r="B351" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="4">
+      <c r="C351" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="4">
+      <c r="D351" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="4">
+      <c r="E351" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="4">
+      <c r="F351" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="4">
+      <c r="G351" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="4">
+      <c r="H351" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="4">
+      <c r="I351" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10411,10 +10459,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="4" t="s">
+      <c r="J356" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
@@ -10458,28 +10506,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="4">
+      <c r="A358" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B358" t="s" s="4">
+      <c r="B358" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C358" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s" s="4">
+      <c r="C358" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E358" t="s" s="4">
+      <c r="E358" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F358" t="s" s="4">
+      <c r="F358" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G358" t="s" s="4">
+      <c r="G358" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H358" t="s" s="4">
+      <c r="H358" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10504,28 +10552,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="B360" t="s" s="4">
+      <c r="B360" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C360" t="s" s="4">
+      <c r="C360" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D360" t="s" s="4">
+      <c r="D360" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E360" t="s" s="4">
+      <c r="E360" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F360" t="s" s="4">
+      <c r="F360" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G360" t="s" s="4">
+      <c r="G360" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H360" t="s" s="4">
+      <c r="H360" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I360" t="s" s="4">
+      <c r="I360" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10584,10 +10632,10 @@
       <c r="I362">
         <f>((C362-C361)^2+(D362- D361)^2)^.5</f>
       </c>
-      <c r="J362" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K362" s="4" t="s">
+      <c r="J362" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K362" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L362" t="n">
@@ -10631,28 +10679,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="s" s="4">
+      <c r="A364" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B364" t="s" s="4">
+      <c r="B364" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C364" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D364" t="s" s="4">
+      <c r="C364" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D364" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E364" t="s" s="4">
+      <c r="E364" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F364" t="s" s="4">
+      <c r="F364" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G364" t="s" s="4">
+      <c r="G364" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H364" t="s" s="4">
+      <c r="H364" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10677,28 +10725,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="B366" t="s" s="4">
+      <c r="B366" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C366" t="s" s="4">
+      <c r="C366" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D366" t="s" s="4">
+      <c r="D366" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E366" t="s" s="4">
+      <c r="E366" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F366" t="s" s="4">
+      <c r="F366" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G366" t="s" s="4">
+      <c r="G366" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H366" t="s" s="4">
+      <c r="H366" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I366" t="s" s="4">
+      <c r="I366" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10757,10 +10805,10 @@
       <c r="I368">
         <f>((C368-C367)^2+(D368- D367)^2)^.5</f>
       </c>
-      <c r="J368" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K368" s="4" t="s">
+      <c r="J368" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K368" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L368" t="n">
@@ -10804,28 +10852,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="s" s="4">
+      <c r="A370" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B370" t="s" s="4">
+      <c r="B370" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C370" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D370" t="s" s="4">
+      <c r="C370" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D370" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E370" t="s" s="4">
+      <c r="E370" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F370" t="s" s="4">
+      <c r="F370" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G370" t="s" s="4">
+      <c r="G370" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H370" t="s" s="4">
+      <c r="H370" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10850,28 +10898,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="B372" t="s" s="4">
+      <c r="B372" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C372" t="s" s="4">
+      <c r="C372" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D372" t="s" s="4">
+      <c r="D372" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E372" t="s" s="4">
+      <c r="E372" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F372" t="s" s="4">
+      <c r="F372" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G372" t="s" s="4">
+      <c r="G372" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H372" t="s" s="4">
+      <c r="H372" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I372" t="s" s="4">
+      <c r="I372" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10930,10 +10978,10 @@
       <c r="I374">
         <f>((C374-C373)^2+(D374- D373)^2)^.5</f>
       </c>
-      <c r="J374" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K374" s="4" t="s">
+      <c r="J374" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K374" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L374" t="n">
@@ -10977,28 +11025,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="s" s="4">
+      <c r="A376" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B376" t="s" s="4">
+      <c r="B376" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C376" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D376" t="s" s="4">
+      <c r="C376" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E376" t="s" s="4">
+      <c r="E376" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F376" t="s" s="4">
+      <c r="F376" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G376" t="s" s="4">
+      <c r="G376" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H376" t="s" s="4">
+      <c r="H376" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11023,28 +11071,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="B378" t="s" s="4">
+      <c r="B378" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C378" t="s" s="4">
+      <c r="C378" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D378" t="s" s="4">
+      <c r="D378" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E378" t="s" s="4">
+      <c r="E378" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F378" t="s" s="4">
+      <c r="F378" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G378" t="s" s="4">
+      <c r="G378" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H378" t="s" s="4">
+      <c r="H378" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I378" t="s" s="4">
+      <c r="I378" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11103,10 +11151,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="4" t="s">
+      <c r="J380" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11150,28 +11198,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="4">
+      <c r="A382" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="4">
+      <c r="B382" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="4">
+      <c r="C382" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="4">
+      <c r="E382" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="4">
+      <c r="F382" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="4">
+      <c r="G382" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="4">
+      <c r="H382" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11196,28 +11244,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="4">
+      <c r="B384" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="4">
+      <c r="C384" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="4">
+      <c r="D384" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="4">
+      <c r="E384" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="4">
+      <c r="F384" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="4">
+      <c r="G384" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="4">
+      <c r="H384" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="4">
+      <c r="I384" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11276,10 +11324,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="4" t="s">
+      <c r="J386" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11323,28 +11371,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="4">
+      <c r="A388" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="4">
+      <c r="B388" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="4">
+      <c r="C388" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="4">
+      <c r="E388" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="4">
+      <c r="F388" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="4">
+      <c r="G388" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="4">
+      <c r="H388" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11369,28 +11417,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="4">
+      <c r="B390" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="4">
+      <c r="C390" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="4">
+      <c r="D390" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="4">
+      <c r="E390" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="4">
+      <c r="F390" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="4">
+      <c r="G390" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="4">
+      <c r="H390" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="4">
+      <c r="I390" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11449,10 +11497,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="4" t="s">
+      <c r="J392" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11496,28 +11544,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="4">
+      <c r="A394" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="4">
+      <c r="B394" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="4">
+      <c r="C394" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="4">
+      <c r="E394" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="4">
+      <c r="F394" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="4">
+      <c r="G394" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="4">
+      <c r="H394" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11542,28 +11590,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="4">
+      <c r="B396" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="4">
+      <c r="C396" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="4">
+      <c r="D396" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="4">
+      <c r="E396" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="4">
+      <c r="F396" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="4">
+      <c r="G396" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="4">
+      <c r="H396" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="4">
+      <c r="I396" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11622,10 +11670,10 @@
       <c r="I398">
         <f>((C398-C397)^2+(D398- D397)^2)^.5</f>
       </c>
-      <c r="J398" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K398" s="4" t="s">
+      <c r="J398" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K398" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L398" t="n">
@@ -11669,28 +11717,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="s" s="4">
+      <c r="A400" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B400" t="s" s="4">
+      <c r="B400" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C400" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D400" t="s" s="4">
+      <c r="C400" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E400" t="s" s="4">
+      <c r="E400" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F400" t="s" s="4">
+      <c r="F400" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G400" t="s" s="4">
+      <c r="G400" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H400" t="s" s="4">
+      <c r="H400" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11715,28 +11763,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="B402" t="s" s="4">
+      <c r="B402" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C402" t="s" s="4">
+      <c r="C402" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D402" t="s" s="4">
+      <c r="D402" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E402" t="s" s="4">
+      <c r="E402" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F402" t="s" s="4">
+      <c r="F402" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G402" t="s" s="4">
+      <c r="G402" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H402" t="s" s="4">
+      <c r="H402" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I402" t="s" s="4">
+      <c r="I402" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11795,10 +11843,10 @@
       <c r="I404">
         <f>((C404-C403)^2+(D404- D403)^2)^.5</f>
       </c>
-      <c r="J404" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K404" s="4" t="s">
+      <c r="J404" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K404" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L404" t="n">
@@ -11842,28 +11890,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="s" s="4">
+      <c r="A406" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B406" t="s" s="4">
+      <c r="B406" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C406" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D406" t="s" s="4">
+      <c r="C406" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D406" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E406" t="s" s="4">
+      <c r="E406" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F406" t="s" s="4">
+      <c r="F406" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G406" t="s" s="4">
+      <c r="G406" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H406" t="s" s="4">
+      <c r="H406" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11888,28 +11936,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="B408" t="s" s="4">
+      <c r="B408" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C408" t="s" s="4">
+      <c r="C408" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D408" t="s" s="4">
+      <c r="D408" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E408" t="s" s="4">
+      <c r="E408" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F408" t="s" s="4">
+      <c r="F408" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G408" t="s" s="4">
+      <c r="G408" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H408" t="s" s="4">
+      <c r="H408" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I408" t="s" s="4">
+      <c r="I408" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11968,10 +12016,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="4" t="s">
+      <c r="J410" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12015,28 +12063,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="4">
+      <c r="A412" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="4">
+      <c r="B412" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="4">
+      <c r="C412" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="4">
+      <c r="E412" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="4">
+      <c r="F412" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="4">
+      <c r="G412" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="4">
+      <c r="H412" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12061,28 +12109,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="4">
+      <c r="B414" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="4">
+      <c r="C414" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="4">
+      <c r="D414" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="4">
+      <c r="E414" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="4">
+      <c r="F414" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="4">
+      <c r="G414" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="4">
+      <c r="H414" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="4">
+      <c r="I414" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12141,10 +12189,10 @@
       <c r="I416">
         <f>((C416-C415)^2+(D416- D415)^2)^.5</f>
       </c>
-      <c r="J416" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K416" s="4" t="s">
+      <c r="J416" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K416" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L416" t="n">
@@ -12188,28 +12236,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s" s="4">
+      <c r="A418" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B418" t="s" s="4">
+      <c r="B418" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C418" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D418" t="s" s="4">
+      <c r="C418" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D418" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E418" t="s" s="4">
+      <c r="E418" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F418" t="s" s="4">
+      <c r="F418" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G418" t="s" s="4">
+      <c r="G418" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H418" t="s" s="4">
+      <c r="H418" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12234,28 +12282,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="B420" t="s" s="4">
+      <c r="B420" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C420" t="s" s="4">
+      <c r="C420" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D420" t="s" s="4">
+      <c r="D420" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E420" t="s" s="4">
+      <c r="E420" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F420" t="s" s="4">
+      <c r="F420" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G420" t="s" s="4">
+      <c r="G420" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H420" t="s" s="4">
+      <c r="H420" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I420" t="s" s="4">
+      <c r="I420" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12314,10 +12362,10 @@
       <c r="I422">
         <f>((C422-C421)^2+(D422- D421)^2)^.5</f>
       </c>
-      <c r="J422" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K422" s="4" t="s">
+      <c r="J422" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K422" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L422" t="n">
@@ -12361,28 +12409,28 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="s" s="4">
+      <c r="A424" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B424" t="s" s="4">
+      <c r="B424" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C424" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D424" t="s" s="4">
+      <c r="C424" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D424" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E424" t="s" s="4">
+      <c r="E424" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F424" t="s" s="4">
+      <c r="F424" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G424" t="s" s="4">
+      <c r="G424" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H424" t="s" s="4">
+      <c r="H424" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12407,28 +12455,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="B426" t="s" s="4">
+      <c r="B426" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C426" t="s" s="4">
+      <c r="C426" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D426" t="s" s="4">
+      <c r="D426" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E426" t="s" s="4">
+      <c r="E426" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F426" t="s" s="4">
+      <c r="F426" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G426" t="s" s="4">
+      <c r="G426" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H426" t="s" s="4">
+      <c r="H426" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I426" t="s" s="4">
+      <c r="I426" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12545,10 +12593,10 @@
       <c r="I430">
         <f>((C430-C429)^2+(D430- D429)^2)^.5</f>
       </c>
-      <c r="J430" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K430" s="4" t="s">
+      <c r="J430" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K430" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L430" t="n">
@@ -12592,28 +12640,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="s" s="4">
+      <c r="A432" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B432" t="s" s="4">
+      <c r="B432" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C432" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D432" t="s" s="4">
+      <c r="C432" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E432" t="s" s="4">
+      <c r="E432" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F432" t="s" s="4">
+      <c r="F432" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G432" t="s" s="4">
+      <c r="G432" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H432" t="s" s="4">
+      <c r="H432" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12638,28 +12686,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="B434" t="s" s="4">
+      <c r="B434" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C434" t="s" s="4">
+      <c r="C434" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D434" t="s" s="4">
+      <c r="D434" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E434" t="s" s="4">
+      <c r="E434" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F434" t="s" s="4">
+      <c r="F434" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G434" t="s" s="4">
+      <c r="G434" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H434" t="s" s="4">
+      <c r="H434" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I434" t="s" s="4">
+      <c r="I434" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12747,10 +12795,10 @@
       <c r="I437">
         <f>((C437-C436)^2+(D437- D436)^2)^.5</f>
       </c>
-      <c r="J437" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K437" s="4" t="s">
+      <c r="J437" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K437" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L437" t="n">
@@ -12794,28 +12842,28 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="s" s="4">
+      <c r="A439" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B439" t="s" s="4">
+      <c r="B439" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C439" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D439" t="s" s="4">
+      <c r="C439" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D439" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E439" t="s" s="4">
+      <c r="E439" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F439" t="s" s="4">
+      <c r="F439" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G439" t="s" s="4">
+      <c r="G439" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H439" t="s" s="4">
+      <c r="H439" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12840,28 +12888,28 @@
       </c>
     </row>
     <row r="441">
-      <c r="B441" t="s" s="4">
+      <c r="B441" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C441" t="s" s="4">
+      <c r="C441" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D441" t="s" s="4">
+      <c r="D441" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E441" t="s" s="4">
+      <c r="E441" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F441" t="s" s="4">
+      <c r="F441" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G441" t="s" s="4">
+      <c r="G441" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H441" t="s" s="4">
+      <c r="H441" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I441" t="s" s="4">
+      <c r="I441" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12920,10 +12968,10 @@
       <c r="I443">
         <f>((C443-C442)^2+(D443- D442)^2)^.5</f>
       </c>
-      <c r="J443" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K443" s="4" t="s">
+      <c r="J443" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K443" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L443" t="n">
@@ -12967,28 +13015,28 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="s" s="4">
+      <c r="A445" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B445" t="s" s="4">
+      <c r="B445" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C445" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D445" t="s" s="4">
+      <c r="C445" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D445" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E445" t="s" s="4">
+      <c r="E445" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F445" t="s" s="4">
+      <c r="F445" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G445" t="s" s="4">
+      <c r="G445" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H445" t="s" s="4">
+      <c r="H445" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13013,28 +13061,28 @@
       </c>
     </row>
     <row r="447">
-      <c r="B447" t="s" s="4">
+      <c r="B447" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C447" t="s" s="4">
+      <c r="C447" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D447" t="s" s="4">
+      <c r="D447" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E447" t="s" s="4">
+      <c r="E447" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F447" t="s" s="4">
+      <c r="F447" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G447" t="s" s="4">
+      <c r="G447" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H447" t="s" s="4">
+      <c r="H447" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I447" t="s" s="4">
+      <c r="I447" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13093,10 +13141,10 @@
       <c r="I449">
         <f>((C449-C448)^2+(D449- D448)^2)^.5</f>
       </c>
-      <c r="J449" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K449" s="4" t="s">
+      <c r="J449" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K449" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L449" t="n">
@@ -13140,28 +13188,28 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="s" s="4">
+      <c r="A451" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B451" t="s" s="4">
+      <c r="B451" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C451" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D451" t="s" s="4">
+      <c r="C451" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D451" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E451" t="s" s="4">
+      <c r="E451" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F451" t="s" s="4">
+      <c r="F451" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G451" t="s" s="4">
+      <c r="G451" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H451" t="s" s="4">
+      <c r="H451" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13186,28 +13234,28 @@
       </c>
     </row>
     <row r="453">
-      <c r="B453" t="s" s="4">
+      <c r="B453" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C453" t="s" s="4">
+      <c r="C453" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D453" t="s" s="4">
+      <c r="D453" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E453" t="s" s="4">
+      <c r="E453" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F453" t="s" s="4">
+      <c r="F453" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G453" t="s" s="4">
+      <c r="G453" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H453" t="s" s="4">
+      <c r="H453" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I453" t="s" s="4">
+      <c r="I453" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13266,10 +13314,10 @@
       <c r="I455">
         <f>((C455-C454)^2+(D455- D454)^2)^.5</f>
       </c>
-      <c r="J455" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K455" s="4" t="s">
+      <c r="J455" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K455" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L455" t="n">
@@ -13313,28 +13361,28 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="s" s="4">
+      <c r="A457" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B457" t="s" s="4">
+      <c r="B457" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C457" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D457" t="s" s="4">
+      <c r="C457" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D457" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E457" t="s" s="4">
+      <c r="E457" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F457" t="s" s="4">
+      <c r="F457" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G457" t="s" s="4">
+      <c r="G457" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H457" t="s" s="4">
+      <c r="H457" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -13359,28 +13407,28 @@
       </c>
     </row>
     <row r="459">
-      <c r="B459" t="s" s="4">
+      <c r="B459" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C459" t="s" s="4">
+      <c r="C459" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D459" t="s" s="4">
+      <c r="D459" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E459" t="s" s="4">
+      <c r="E459" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F459" t="s" s="4">
+      <c r="F459" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G459" t="s" s="4">
+      <c r="G459" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H459" t="s" s="4">
+      <c r="H459" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I459" t="s" s="4">
+      <c r="I459" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -13439,10 +13487,10 @@
       <c r="I461">
         <f>((C461-C460)^2+(D461- D460)^2)^.5</f>
       </c>
-      <c r="J461" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K461" s="4" t="s">
+      <c r="J461" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K461" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L461" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15744" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19680" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -392,10 +410,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -439,28 +457,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="12">
+      <c r="A9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="12">
+      <c r="B9" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="12">
+      <c r="C9" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="12">
+      <c r="H9" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -485,28 +503,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="12">
+      <c r="I11" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -652,10 +670,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="J16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -699,28 +717,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="12">
+      <c r="C18" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -745,28 +763,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -825,10 +843,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -872,28 +890,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="12">
+      <c r="A24" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="12">
+      <c r="C24" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F24" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G24" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -918,28 +936,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="12">
+      <c r="C26" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D26" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="12">
+      <c r="I26" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1056,10 +1074,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="12" t="s">
+      <c r="J30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1103,28 +1121,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="12">
+      <c r="A32" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="12">
+      <c r="C32" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1149,28 +1167,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C34" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D34" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="12">
+      <c r="I34" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1247,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="12" t="s">
+      <c r="J36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1276,28 +1294,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="12">
+      <c r="A38" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="12">
+      <c r="C38" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F38" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1340,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="12">
+      <c r="C40" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="D40" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="12">
+      <c r="I40" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1402,10 +1420,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="12" t="s">
+      <c r="J42" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1449,28 +1467,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="12">
+      <c r="A44" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="12">
+      <c r="C44" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1495,28 +1513,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="12">
+      <c r="B46" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="12">
+      <c r="C46" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="12">
+      <c r="D46" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="12">
+      <c r="E46" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="12">
+      <c r="F46" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="12">
+      <c r="H46" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="12">
+      <c r="I46" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1575,10 +1593,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="12" t="s">
+      <c r="J48" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1622,28 +1640,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="12">
+      <c r="A50" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="12">
+      <c r="C50" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1668,28 +1686,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="12">
+      <c r="C52" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="12">
+      <c r="D52" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="12">
+      <c r="I52" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1748,10 +1766,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="12" t="s">
+      <c r="J54" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1795,28 +1813,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="12">
+      <c r="A56" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="12">
+      <c r="B56" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="12">
+      <c r="C56" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="12">
+      <c r="E56" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="12">
+      <c r="F56" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="12">
+      <c r="G56" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="12">
+      <c r="H56" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1841,28 +1859,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="12">
+      <c r="C58" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="12">
+      <c r="D58" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="12">
+      <c r="I58" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2008,10 +2026,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="12" t="s">
+      <c r="J63" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2055,28 +2073,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="12">
+      <c r="A65" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="12">
+      <c r="B65" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="12">
+      <c r="C65" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="12">
+      <c r="E65" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="12">
+      <c r="F65" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="12">
+      <c r="G65" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="12">
+      <c r="H65" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2101,28 +2119,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="12">
+      <c r="B67" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="12">
+      <c r="C67" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="12">
+      <c r="D67" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="12">
+      <c r="E67" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="12">
+      <c r="F67" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="12">
+      <c r="G67" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="12">
+      <c r="H67" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="12">
+      <c r="I67" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2181,10 +2199,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="12" t="s">
+      <c r="J69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2228,28 +2246,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="12">
+      <c r="A71" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="12">
+      <c r="C71" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2274,28 +2292,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="12">
+      <c r="C73" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D73" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="12">
+      <c r="I73" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2354,10 +2372,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="12" t="s">
+      <c r="J75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2401,28 +2419,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="12">
+      <c r="A77" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="12">
+      <c r="C77" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="12">
+      <c r="E77" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="12">
+      <c r="F77" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="12">
+      <c r="G77" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2447,28 +2465,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="12">
+      <c r="C79" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="12">
+      <c r="D79" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="12">
+      <c r="E79" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="12">
+      <c r="F79" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="12">
+      <c r="G79" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="12">
+      <c r="H79" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="12">
+      <c r="I79" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2527,10 +2545,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="12" t="s">
+      <c r="J81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2574,28 +2592,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="12">
+      <c r="A83" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="12">
+      <c r="C83" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2620,28 +2638,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="12">
+      <c r="B85" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="12">
+      <c r="C85" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="12">
+      <c r="D85" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="12">
+      <c r="E85" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="12">
+      <c r="F85" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="12">
+      <c r="G85" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="12">
+      <c r="H85" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="12">
+      <c r="I85" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2700,10 +2718,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="12" t="s">
+      <c r="J87" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2747,28 +2765,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="12">
+      <c r="A89" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="12">
+      <c r="C89" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2793,28 +2811,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="12">
+      <c r="C91" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="D91" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="12">
+      <c r="F91" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="12">
+      <c r="G91" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="12">
+      <c r="I91" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2873,10 +2891,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="12" t="s">
+      <c r="J93" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2920,28 +2938,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="12">
+      <c r="A95" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="12">
+      <c r="B95" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="12">
+      <c r="C95" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="12">
+      <c r="F95" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2966,28 +2984,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="12">
+      <c r="C97" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="12">
+      <c r="D97" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="12">
+      <c r="I97" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3104,10 +3122,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="12" t="s">
+      <c r="J101" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3151,28 +3169,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="12">
+      <c r="A103" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="12">
+      <c r="C103" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3197,28 +3215,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="12">
+      <c r="B105" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="12">
+      <c r="C105" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="12">
+      <c r="D105" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="12">
+      <c r="E105" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="12">
+      <c r="F105" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="12">
+      <c r="G105" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="12">
+      <c r="H105" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="12">
+      <c r="I105" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3277,10 +3295,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="12" t="s">
+      <c r="J107" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3324,28 +3342,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="12">
+      <c r="A109" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="12">
+      <c r="C109" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="12">
+      <c r="F109" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3370,28 +3388,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="12">
+      <c r="B111" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="12">
+      <c r="C111" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="12">
+      <c r="D111" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="12">
+      <c r="E111" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="12">
+      <c r="F111" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="12">
+      <c r="G111" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="12">
+      <c r="H111" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="12">
+      <c r="I111" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3450,10 +3468,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="12" t="s">
+      <c r="J113" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3497,28 +3515,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="12">
+      <c r="A115" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="12">
+      <c r="C115" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3543,28 +3561,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="12">
+      <c r="C117" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="12">
+      <c r="D117" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="12">
+      <c r="I117" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3623,10 +3641,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="12" t="s">
+      <c r="J119" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3670,28 +3688,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="12">
+      <c r="A121" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="12">
+      <c r="C121" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3716,28 +3734,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="12">
+      <c r="B123" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="12">
+      <c r="C123" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="12">
+      <c r="D123" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="12">
+      <c r="F123" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="12">
+      <c r="H123" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="12">
+      <c r="I123" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3854,10 +3872,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="12" t="s">
+      <c r="J127" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3901,28 +3919,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="12">
+      <c r="A129" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="12">
+      <c r="B129" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="12">
+      <c r="C129" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="12">
+      <c r="F129" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="12">
+      <c r="H129" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3947,28 +3965,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="12">
+      <c r="B131" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="12">
+      <c r="C131" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="12">
+      <c r="D131" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="12">
+      <c r="E131" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="12">
+      <c r="F131" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="12">
+      <c r="G131" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="12">
+      <c r="H131" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="12">
+      <c r="I131" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4027,10 +4045,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="12" t="s">
+      <c r="J133" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4074,28 +4092,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="12">
+      <c r="A135" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="12">
+      <c r="C135" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4120,28 +4138,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="12">
+      <c r="B137" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="12">
+      <c r="C137" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="12">
+      <c r="D137" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="12">
+      <c r="E137" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="12">
+      <c r="F137" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="12">
+      <c r="G137" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="12">
+      <c r="H137" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="12">
+      <c r="I137" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4200,10 +4218,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="12" t="s">
+      <c r="J139" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4247,28 +4265,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="12">
+      <c r="A141" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="12">
+      <c r="C141" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4293,28 +4311,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="12">
+      <c r="B143" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="12">
+      <c r="C143" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="12">
+      <c r="D143" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="12">
+      <c r="E143" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="12">
+      <c r="F143" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="12">
+      <c r="G143" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="12">
+      <c r="H143" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="12">
+      <c r="I143" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4460,10 +4478,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="12" t="s">
+      <c r="J148" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4507,28 +4525,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="12">
+      <c r="A150" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="12">
+      <c r="B150" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="12">
+      <c r="C150" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="12">
+      <c r="E150" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="12">
+      <c r="F150" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="12">
+      <c r="G150" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="12">
+      <c r="H150" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4553,28 +4571,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="12">
+      <c r="C152" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="12">
+      <c r="D152" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="12">
+      <c r="I152" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4633,10 +4651,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="12" t="s">
+      <c r="J154" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4680,28 +4698,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="12">
+      <c r="A156" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="12">
+      <c r="C156" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4726,28 +4744,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="12">
+      <c r="C158" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="12">
+      <c r="D158" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="12">
+      <c r="I158" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4893,10 +4911,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="12" t="s">
+      <c r="J163" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4940,28 +4958,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="12">
+      <c r="A165" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="12">
+      <c r="B165" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="12">
+      <c r="C165" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="12">
+      <c r="E165" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="12">
+      <c r="F165" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="12">
+      <c r="G165" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="12">
+      <c r="H165" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4986,28 +5004,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="12">
+      <c r="B167" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="12">
+      <c r="C167" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="12">
+      <c r="D167" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="12">
+      <c r="E167" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="12">
+      <c r="F167" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="12">
+      <c r="G167" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="12">
+      <c r="H167" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="12">
+      <c r="I167" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5066,10 +5084,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="12" t="s">
+      <c r="J169" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5113,28 +5131,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="12">
+      <c r="A171" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="12">
+      <c r="B171" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="12">
+      <c r="C171" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="12">
+      <c r="E171" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="12">
+      <c r="F171" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="12">
+      <c r="G171" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="12">
+      <c r="H171" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5159,28 +5177,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="12">
+      <c r="B173" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="12">
+      <c r="C173" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="12">
+      <c r="D173" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="12">
+      <c r="E173" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="12">
+      <c r="F173" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="12">
+      <c r="G173" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="12">
+      <c r="H173" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="12">
+      <c r="I173" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5297,10 +5315,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="12" t="s">
+      <c r="J177" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5344,28 +5362,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="12">
+      <c r="A179" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="12">
+      <c r="B179" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="12">
+      <c r="C179" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="12">
+      <c r="E179" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="12">
+      <c r="F179" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="12">
+      <c r="G179" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="12">
+      <c r="H179" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5390,28 +5408,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="12">
+      <c r="B181" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="12">
+      <c r="C181" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="12">
+      <c r="D181" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="12">
+      <c r="E181" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="12">
+      <c r="F181" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="12">
+      <c r="G181" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="12">
+      <c r="H181" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="12">
+      <c r="I181" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5470,10 +5488,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="12" t="s">
+      <c r="J183" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5517,28 +5535,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="12">
+      <c r="A185" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="12">
+      <c r="B185" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="12">
+      <c r="C185" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="12">
+      <c r="E185" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="12">
+      <c r="F185" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="12">
+      <c r="G185" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="12">
+      <c r="H185" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5563,28 +5581,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="12">
+      <c r="B187" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="12">
+      <c r="C187" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="12">
+      <c r="D187" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="12">
+      <c r="E187" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="12">
+      <c r="F187" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="12">
+      <c r="G187" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="12">
+      <c r="H187" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="12">
+      <c r="I187" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5643,10 +5661,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="12" t="s">
+      <c r="J189" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5690,28 +5708,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="12">
+      <c r="A191" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="12">
+      <c r="B191" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="12">
+      <c r="C191" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="12">
+      <c r="E191" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="12">
+      <c r="F191" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="12">
+      <c r="G191" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="12">
+      <c r="H191" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5736,28 +5754,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="12">
+      <c r="B193" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="12">
+      <c r="C193" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="12">
+      <c r="D193" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="12">
+      <c r="E193" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="12">
+      <c r="F193" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="12">
+      <c r="G193" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="12">
+      <c r="H193" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="12">
+      <c r="I193" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5816,10 +5834,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="12" t="s">
+      <c r="J195" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5863,28 +5881,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="12">
+      <c r="A197" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="12">
+      <c r="C197" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="12">
+      <c r="E197" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="12">
+      <c r="F197" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="12">
+      <c r="G197" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="12">
+      <c r="H197" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5909,28 +5927,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="12">
+      <c r="C199" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="12">
+      <c r="D199" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="12">
+      <c r="I199" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5989,10 +6007,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="12" t="s">
+      <c r="J201" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -6036,28 +6054,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="12">
+      <c r="A203" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="12">
+      <c r="B203" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="12">
+      <c r="C203" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="12">
+      <c r="E203" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="12">
+      <c r="F203" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="12">
+      <c r="G203" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="12">
+      <c r="H203" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6082,28 +6100,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="12">
+      <c r="C205" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="12">
+      <c r="D205" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="12">
+      <c r="I205" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6162,10 +6180,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="12" t="s">
+      <c r="J207" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6209,28 +6227,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="12">
+      <c r="A209" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="12">
+      <c r="B209" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="12">
+      <c r="C209" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="12">
+      <c r="E209" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="12">
+      <c r="F209" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="12">
+      <c r="G209" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="12">
+      <c r="H209" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6255,28 +6273,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="12">
+      <c r="B211" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="12">
+      <c r="C211" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="12">
+      <c r="D211" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="12">
+      <c r="E211" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="12">
+      <c r="F211" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="12">
+      <c r="G211" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="12">
+      <c r="H211" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="12">
+      <c r="I211" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6335,10 +6353,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="12" t="s">
+      <c r="J213" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6382,28 +6400,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="12">
+      <c r="A215" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="12">
+      <c r="B215" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="12">
+      <c r="C215" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="12">
+      <c r="E215" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="12">
+      <c r="F215" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="12">
+      <c r="G215" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="12">
+      <c r="H215" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6428,28 +6446,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="12">
+      <c r="B217" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="12">
+      <c r="C217" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="12">
+      <c r="D217" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="12">
+      <c r="E217" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="12">
+      <c r="F217" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="12">
+      <c r="G217" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="12">
+      <c r="H217" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="12">
+      <c r="I217" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6508,10 +6526,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="12" t="s">
+      <c r="J219" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6555,28 +6573,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="12">
+      <c r="A221" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="12">
+      <c r="C221" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6601,28 +6619,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="12">
+      <c r="B223" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="12">
+      <c r="C223" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="12">
+      <c r="D223" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="12">
+      <c r="E223" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="12">
+      <c r="F223" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="12">
+      <c r="G223" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="12">
+      <c r="H223" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="12">
+      <c r="I223" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6681,10 +6699,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="12" t="s">
+      <c r="J225" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6728,28 +6746,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="12">
+      <c r="A227" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="12">
+      <c r="C227" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6774,28 +6792,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="12">
+      <c r="B229" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="12">
+      <c r="C229" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="12">
+      <c r="D229" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="12">
+      <c r="E229" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="12">
+      <c r="F229" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="12">
+      <c r="G229" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="12">
+      <c r="H229" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="12">
+      <c r="I229" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6912,10 +6930,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="12" t="s">
+      <c r="J233" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6959,28 +6977,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="12">
+      <c r="A235" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="12">
+      <c r="C235" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="12">
+      <c r="E235" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="12">
+      <c r="F235" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="12">
+      <c r="G235" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="12">
+      <c r="H235" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7005,28 +7023,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="12">
+      <c r="C237" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="12">
+      <c r="D237" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="12">
+      <c r="E237" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="12">
+      <c r="F237" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="12">
+      <c r="G237" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="12">
+      <c r="H237" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="12">
+      <c r="I237" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7085,10 +7103,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="12" t="s">
+      <c r="J239" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7132,28 +7150,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="12">
+      <c r="A241" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="12">
+      <c r="B241" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="12">
+      <c r="C241" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="12">
+      <c r="E241" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="12">
+      <c r="F241" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="12">
+      <c r="G241" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="12">
+      <c r="H241" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7178,28 +7196,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="12">
+      <c r="B243" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="12">
+      <c r="C243" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="12">
+      <c r="D243" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="12">
+      <c r="E243" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="12">
+      <c r="F243" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="12">
+      <c r="G243" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="12">
+      <c r="H243" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="12">
+      <c r="I243" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7258,10 +7276,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="12" t="s">
+      <c r="J245" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7305,28 +7323,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="12">
+      <c r="A247" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="12">
+      <c r="B247" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="12">
+      <c r="C247" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="12">
+      <c r="E247" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="12">
+      <c r="F247" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="12">
+      <c r="G247" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="12">
+      <c r="H247" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7351,28 +7369,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="12">
+      <c r="B249" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="12">
+      <c r="C249" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="12">
+      <c r="D249" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="12">
+      <c r="E249" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="12">
+      <c r="F249" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="12">
+      <c r="G249" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="12">
+      <c r="H249" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="12">
+      <c r="I249" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7431,10 +7449,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="12" t="s">
+      <c r="J251" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7478,28 +7496,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="12">
+      <c r="A253" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="12">
+      <c r="B253" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="12">
+      <c r="C253" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="12">
+      <c r="E253" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="12">
+      <c r="F253" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="12">
+      <c r="G253" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="12">
+      <c r="H253" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7524,28 +7542,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="12">
+      <c r="B255" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="12">
+      <c r="C255" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="12">
+      <c r="D255" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="12">
+      <c r="E255" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="12">
+      <c r="F255" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="12">
+      <c r="G255" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="12">
+      <c r="H255" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="12">
+      <c r="I255" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7604,10 +7622,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="12" t="s">
+      <c r="J257" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7651,28 +7669,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="12">
+      <c r="A259" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="12">
+      <c r="B259" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="12">
+      <c r="C259" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="12">
+      <c r="E259" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="12">
+      <c r="F259" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="12">
+      <c r="G259" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="12">
+      <c r="H259" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7697,28 +7715,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="12">
+      <c r="B261" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="12">
+      <c r="C261" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="12">
+      <c r="D261" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="12">
+      <c r="E261" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="12">
+      <c r="F261" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="12">
+      <c r="G261" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="12">
+      <c r="H261" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="12">
+      <c r="I261" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7777,10 +7795,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="12" t="s">
+      <c r="J263" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7824,28 +7842,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="12">
+      <c r="A265" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="12">
+      <c r="B265" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="12">
+      <c r="C265" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="12">
+      <c r="E265" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="12">
+      <c r="F265" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="12">
+      <c r="G265" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="12">
+      <c r="H265" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7870,28 +7888,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="12">
+      <c r="B267" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="12">
+      <c r="C267" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="12">
+      <c r="D267" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="12">
+      <c r="E267" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="12">
+      <c r="F267" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="12">
+      <c r="G267" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="12">
+      <c r="H267" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="12">
+      <c r="I267" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7950,10 +7968,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="12" t="s">
+      <c r="J269" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7997,28 +8015,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="12">
+      <c r="A271" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="12">
+      <c r="B271" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="12">
+      <c r="C271" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="12">
+      <c r="E271" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="12">
+      <c r="F271" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="12">
+      <c r="G271" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="12">
+      <c r="H271" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8043,28 +8061,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="12">
+      <c r="B273" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="12">
+      <c r="C273" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="12">
+      <c r="D273" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="12">
+      <c r="E273" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="12">
+      <c r="F273" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="12">
+      <c r="G273" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="12">
+      <c r="H273" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="12">
+      <c r="I273" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8123,10 +8141,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="12" t="s">
+      <c r="J275" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8170,28 +8188,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="12">
+      <c r="A277" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="12">
+      <c r="B277" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="12">
+      <c r="C277" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="12">
+      <c r="E277" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="12">
+      <c r="F277" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="12">
+      <c r="G277" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="12">
+      <c r="H277" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8216,28 +8234,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="12">
+      <c r="B279" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="12">
+      <c r="C279" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="12">
+      <c r="D279" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="12">
+      <c r="E279" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="12">
+      <c r="F279" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="12">
+      <c r="G279" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="12">
+      <c r="H279" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="12">
+      <c r="I279" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8296,10 +8314,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="12" t="s">
+      <c r="J281" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8343,28 +8361,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="12">
+      <c r="A283" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="12">
+      <c r="B283" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="12">
+      <c r="C283" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="12">
+      <c r="E283" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="12">
+      <c r="F283" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="12">
+      <c r="G283" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="12">
+      <c r="H283" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8389,28 +8407,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="12">
+      <c r="B285" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="12">
+      <c r="C285" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="12">
+      <c r="D285" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="12">
+      <c r="E285" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="12">
+      <c r="F285" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="12">
+      <c r="G285" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="12">
+      <c r="H285" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="12">
+      <c r="I285" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8469,10 +8487,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="12" t="s">
+      <c r="J287" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8516,28 +8534,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="12">
+      <c r="A289" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="12">
+      <c r="C289" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="12">
+      <c r="E289" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="12">
+      <c r="F289" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="12">
+      <c r="G289" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="12">
+      <c r="H289" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8562,28 +8580,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="12">
+      <c r="B291" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="12">
+      <c r="C291" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="12">
+      <c r="D291" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="12">
+      <c r="E291" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="12">
+      <c r="F291" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="12">
+      <c r="G291" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="12">
+      <c r="H291" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="12">
+      <c r="I291" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8642,10 +8660,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="12" t="s">
+      <c r="J293" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8689,28 +8707,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="12">
+      <c r="A295" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="12">
+      <c r="B295" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="12">
+      <c r="C295" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="12">
+      <c r="E295" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="12">
+      <c r="F295" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="12">
+      <c r="G295" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="12">
+      <c r="H295" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8735,28 +8753,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="12">
+      <c r="B297" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="12">
+      <c r="C297" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="12">
+      <c r="D297" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="12">
+      <c r="E297" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="12">
+      <c r="F297" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="12">
+      <c r="G297" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="12">
+      <c r="H297" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="12">
+      <c r="I297" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8815,10 +8833,10 @@
       <c r="I299">
         <f>((C299-C298)^2+(D299- D298)^2)^.5</f>
       </c>
-      <c r="J299" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K299" s="12" t="s">
+      <c r="J299" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K299" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L299" t="n">
@@ -8862,28 +8880,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="s" s="12">
+      <c r="A301" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B301" t="s" s="12">
+      <c r="B301" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C301" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D301" t="s" s="12">
+      <c r="C301" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D301" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E301" t="s" s="12">
+      <c r="E301" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F301" t="s" s="12">
+      <c r="F301" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G301" t="s" s="12">
+      <c r="G301" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H301" t="s" s="12">
+      <c r="H301" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8908,28 +8926,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="B303" t="s" s="12">
+      <c r="B303" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C303" t="s" s="12">
+      <c r="C303" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D303" t="s" s="12">
+      <c r="D303" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E303" t="s" s="12">
+      <c r="E303" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F303" t="s" s="12">
+      <c r="F303" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G303" t="s" s="12">
+      <c r="G303" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H303" t="s" s="12">
+      <c r="H303" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I303" t="s" s="12">
+      <c r="I303" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8988,10 +9006,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="12" t="s">
+      <c r="J305" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -9035,28 +9053,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="12">
+      <c r="A307" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="12">
+      <c r="C307" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="12">
+      <c r="E307" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="12">
+      <c r="F307" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="12">
+      <c r="G307" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="12">
+      <c r="H307" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9081,28 +9099,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="12">
+      <c r="B309" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="12">
+      <c r="C309" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="12">
+      <c r="D309" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="12">
+      <c r="E309" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="12">
+      <c r="F309" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="12">
+      <c r="G309" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="12">
+      <c r="H309" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="12">
+      <c r="I309" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9161,10 +9179,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="12" t="s">
+      <c r="J311" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9208,28 +9226,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="12">
+      <c r="A313" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="12">
+      <c r="C313" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9254,28 +9272,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="12">
+      <c r="B315" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="12">
+      <c r="C315" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="12">
+      <c r="D315" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="12">
+      <c r="E315" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="12">
+      <c r="F315" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="12">
+      <c r="G315" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="12">
+      <c r="H315" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="12">
+      <c r="I315" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9334,10 +9352,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="12" t="s">
+      <c r="J317" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9381,28 +9399,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="12">
+      <c r="A319" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="12">
+      <c r="C319" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="12">
+      <c r="E319" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="12">
+      <c r="F319" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="12">
+      <c r="G319" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="12">
+      <c r="H319" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9427,28 +9445,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="12">
+      <c r="B321" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="12">
+      <c r="C321" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="12">
+      <c r="D321" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="12">
+      <c r="E321" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="12">
+      <c r="F321" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="12">
+      <c r="G321" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="12">
+      <c r="H321" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="12">
+      <c r="I321" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9507,10 +9525,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="12" t="s">
+      <c r="J323" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9554,28 +9572,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="12">
+      <c r="A325" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="12">
+      <c r="B325" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="12">
+      <c r="C325" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="12">
+      <c r="E325" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="12">
+      <c r="F325" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="12">
+      <c r="G325" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="12">
+      <c r="H325" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9600,28 +9618,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="12">
+      <c r="B327" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="12">
+      <c r="C327" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="12">
+      <c r="D327" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="12">
+      <c r="E327" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="12">
+      <c r="F327" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="12">
+      <c r="G327" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="12">
+      <c r="H327" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="12">
+      <c r="I327" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9680,10 +9698,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="12" t="s">
+      <c r="J329" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9727,28 +9745,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="12">
+      <c r="A331" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="12">
+      <c r="B331" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="12">
+      <c r="C331" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="12">
+      <c r="E331" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="12">
+      <c r="F331" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="12">
+      <c r="G331" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="12">
+      <c r="H331" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9773,28 +9791,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="12">
+      <c r="B333" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="12">
+      <c r="C333" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="12">
+      <c r="D333" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="12">
+      <c r="E333" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="12">
+      <c r="F333" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="12">
+      <c r="G333" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="12">
+      <c r="H333" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="12">
+      <c r="I333" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9853,10 +9871,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="12" t="s">
+      <c r="J335" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9900,28 +9918,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="12">
+      <c r="A337" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="12">
+      <c r="B337" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="12">
+      <c r="C337" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="12">
+      <c r="E337" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="12">
+      <c r="F337" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="12">
+      <c r="G337" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="12">
+      <c r="H337" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9946,28 +9964,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="12">
+      <c r="B339" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="12">
+      <c r="C339" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="12">
+      <c r="D339" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="12">
+      <c r="E339" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="12">
+      <c r="F339" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="12">
+      <c r="G339" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="12">
+      <c r="H339" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="12">
+      <c r="I339" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10026,10 +10044,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="12" t="s">
+      <c r="J341" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10073,28 +10091,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="12">
+      <c r="A343" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="12">
+      <c r="B343" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="12">
+      <c r="C343" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="12">
+      <c r="E343" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="12">
+      <c r="F343" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="12">
+      <c r="G343" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="12">
+      <c r="H343" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10119,28 +10137,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="12">
+      <c r="B345" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="12">
+      <c r="C345" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="12">
+      <c r="D345" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="12">
+      <c r="E345" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="12">
+      <c r="F345" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="12">
+      <c r="G345" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="12">
+      <c r="H345" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="12">
+      <c r="I345" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10199,10 +10217,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="12" t="s">
+      <c r="J347" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10246,28 +10264,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="12">
+      <c r="A349" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="12">
+      <c r="B349" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="12">
+      <c r="C349" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="12">
+      <c r="E349" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="12">
+      <c r="F349" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="12">
+      <c r="G349" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="12">
+      <c r="H349" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10292,28 +10310,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="12">
+      <c r="B351" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="12">
+      <c r="C351" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="12">
+      <c r="D351" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="12">
+      <c r="E351" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="12">
+      <c r="F351" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="12">
+      <c r="G351" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="12">
+      <c r="H351" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="12">
+      <c r="I351" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10459,10 +10477,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="12" t="s">
+      <c r="J356" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
@@ -10506,28 +10524,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="12">
+      <c r="A358" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B358" t="s" s="12">
+      <c r="B358" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C358" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s" s="12">
+      <c r="C358" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E358" t="s" s="12">
+      <c r="E358" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F358" t="s" s="12">
+      <c r="F358" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G358" t="s" s="12">
+      <c r="G358" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H358" t="s" s="12">
+      <c r="H358" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10552,28 +10570,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="B360" t="s" s="12">
+      <c r="B360" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C360" t="s" s="12">
+      <c r="C360" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D360" t="s" s="12">
+      <c r="D360" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E360" t="s" s="12">
+      <c r="E360" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F360" t="s" s="12">
+      <c r="F360" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G360" t="s" s="12">
+      <c r="G360" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H360" t="s" s="12">
+      <c r="H360" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I360" t="s" s="12">
+      <c r="I360" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10632,10 +10650,10 @@
       <c r="I362">
         <f>((C362-C361)^2+(D362- D361)^2)^.5</f>
       </c>
-      <c r="J362" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K362" s="12" t="s">
+      <c r="J362" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K362" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L362" t="n">
@@ -10679,28 +10697,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="s" s="12">
+      <c r="A364" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B364" t="s" s="12">
+      <c r="B364" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C364" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D364" t="s" s="12">
+      <c r="C364" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D364" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E364" t="s" s="12">
+      <c r="E364" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F364" t="s" s="12">
+      <c r="F364" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G364" t="s" s="12">
+      <c r="G364" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H364" t="s" s="12">
+      <c r="H364" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10725,28 +10743,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="B366" t="s" s="12">
+      <c r="B366" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C366" t="s" s="12">
+      <c r="C366" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D366" t="s" s="12">
+      <c r="D366" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E366" t="s" s="12">
+      <c r="E366" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F366" t="s" s="12">
+      <c r="F366" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G366" t="s" s="12">
+      <c r="G366" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H366" t="s" s="12">
+      <c r="H366" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I366" t="s" s="12">
+      <c r="I366" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10805,10 +10823,10 @@
       <c r="I368">
         <f>((C368-C367)^2+(D368- D367)^2)^.5</f>
       </c>
-      <c r="J368" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K368" s="12" t="s">
+      <c r="J368" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K368" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L368" t="n">
@@ -10852,28 +10870,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="s" s="12">
+      <c r="A370" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B370" t="s" s="12">
+      <c r="B370" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C370" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D370" t="s" s="12">
+      <c r="C370" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D370" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E370" t="s" s="12">
+      <c r="E370" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F370" t="s" s="12">
+      <c r="F370" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G370" t="s" s="12">
+      <c r="G370" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H370" t="s" s="12">
+      <c r="H370" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10898,28 +10916,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="B372" t="s" s="12">
+      <c r="B372" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C372" t="s" s="12">
+      <c r="C372" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D372" t="s" s="12">
+      <c r="D372" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E372" t="s" s="12">
+      <c r="E372" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F372" t="s" s="12">
+      <c r="F372" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G372" t="s" s="12">
+      <c r="G372" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H372" t="s" s="12">
+      <c r="H372" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I372" t="s" s="12">
+      <c r="I372" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10978,10 +10996,10 @@
       <c r="I374">
         <f>((C374-C373)^2+(D374- D373)^2)^.5</f>
       </c>
-      <c r="J374" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K374" s="12" t="s">
+      <c r="J374" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K374" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L374" t="n">
@@ -11025,28 +11043,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="s" s="12">
+      <c r="A376" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B376" t="s" s="12">
+      <c r="B376" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C376" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D376" t="s" s="12">
+      <c r="C376" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E376" t="s" s="12">
+      <c r="E376" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F376" t="s" s="12">
+      <c r="F376" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G376" t="s" s="12">
+      <c r="G376" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H376" t="s" s="12">
+      <c r="H376" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11071,28 +11089,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="B378" t="s" s="12">
+      <c r="B378" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C378" t="s" s="12">
+      <c r="C378" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D378" t="s" s="12">
+      <c r="D378" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E378" t="s" s="12">
+      <c r="E378" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F378" t="s" s="12">
+      <c r="F378" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G378" t="s" s="12">
+      <c r="G378" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H378" t="s" s="12">
+      <c r="H378" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I378" t="s" s="12">
+      <c r="I378" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11151,10 +11169,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="12" t="s">
+      <c r="J380" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11198,28 +11216,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="12">
+      <c r="A382" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="12">
+      <c r="B382" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="12">
+      <c r="C382" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="12">
+      <c r="E382" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="12">
+      <c r="F382" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="12">
+      <c r="G382" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="12">
+      <c r="H382" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11244,28 +11262,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="12">
+      <c r="B384" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="12">
+      <c r="C384" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="12">
+      <c r="D384" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="12">
+      <c r="E384" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="12">
+      <c r="F384" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="12">
+      <c r="G384" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="12">
+      <c r="H384" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="12">
+      <c r="I384" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11324,10 +11342,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="12" t="s">
+      <c r="J386" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11371,28 +11389,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="12">
+      <c r="A388" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="12">
+      <c r="B388" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="12">
+      <c r="C388" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="12">
+      <c r="E388" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="12">
+      <c r="F388" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="12">
+      <c r="G388" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="12">
+      <c r="H388" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11417,28 +11435,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="12">
+      <c r="B390" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="12">
+      <c r="C390" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="12">
+      <c r="D390" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="12">
+      <c r="E390" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="12">
+      <c r="F390" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="12">
+      <c r="G390" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="12">
+      <c r="H390" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="12">
+      <c r="I390" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11497,10 +11515,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="12" t="s">
+      <c r="J392" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11544,28 +11562,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="12">
+      <c r="A394" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="12">
+      <c r="B394" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="12">
+      <c r="C394" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="12">
+      <c r="E394" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="12">
+      <c r="F394" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="12">
+      <c r="G394" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="12">
+      <c r="H394" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11590,28 +11608,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="12">
+      <c r="B396" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="12">
+      <c r="C396" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="12">
+      <c r="D396" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="12">
+      <c r="E396" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="12">
+      <c r="F396" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="12">
+      <c r="G396" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="12">
+      <c r="H396" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="12">
+      <c r="I396" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11670,10 +11688,10 @@
       <c r="I398">
         <f>((C398-C397)^2+(D398- D397)^2)^.5</f>
       </c>
-      <c r="J398" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K398" s="12" t="s">
+      <c r="J398" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K398" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L398" t="n">
@@ -11717,28 +11735,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="s" s="12">
+      <c r="A400" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B400" t="s" s="12">
+      <c r="B400" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C400" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D400" t="s" s="12">
+      <c r="C400" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E400" t="s" s="12">
+      <c r="E400" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F400" t="s" s="12">
+      <c r="F400" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G400" t="s" s="12">
+      <c r="G400" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H400" t="s" s="12">
+      <c r="H400" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11763,28 +11781,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="B402" t="s" s="12">
+      <c r="B402" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C402" t="s" s="12">
+      <c r="C402" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D402" t="s" s="12">
+      <c r="D402" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E402" t="s" s="12">
+      <c r="E402" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F402" t="s" s="12">
+      <c r="F402" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G402" t="s" s="12">
+      <c r="G402" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H402" t="s" s="12">
+      <c r="H402" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I402" t="s" s="12">
+      <c r="I402" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11843,10 +11861,10 @@
       <c r="I404">
         <f>((C404-C403)^2+(D404- D403)^2)^.5</f>
       </c>
-      <c r="J404" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K404" s="12" t="s">
+      <c r="J404" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K404" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L404" t="n">
@@ -11890,28 +11908,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="s" s="12">
+      <c r="A406" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B406" t="s" s="12">
+      <c r="B406" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C406" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D406" t="s" s="12">
+      <c r="C406" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D406" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E406" t="s" s="12">
+      <c r="E406" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F406" t="s" s="12">
+      <c r="F406" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G406" t="s" s="12">
+      <c r="G406" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H406" t="s" s="12">
+      <c r="H406" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11936,28 +11954,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="B408" t="s" s="12">
+      <c r="B408" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C408" t="s" s="12">
+      <c r="C408" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D408" t="s" s="12">
+      <c r="D408" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E408" t="s" s="12">
+      <c r="E408" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F408" t="s" s="12">
+      <c r="F408" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G408" t="s" s="12">
+      <c r="G408" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H408" t="s" s="12">
+      <c r="H408" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I408" t="s" s="12">
+      <c r="I408" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12016,10 +12034,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="12" t="s">
+      <c r="J410" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12063,28 +12081,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="12">
+      <c r="A412" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="12">
+      <c r="B412" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="12">
+      <c r="C412" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="12">
+      <c r="E412" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="12">
+      <c r="F412" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="12">
+      <c r="G412" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="12">
+      <c r="H412" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12109,28 +12127,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="12">
+      <c r="B414" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="12">
+      <c r="C414" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="12">
+      <c r="D414" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="12">
+      <c r="E414" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="12">
+      <c r="F414" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="12">
+      <c r="G414" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="12">
+      <c r="H414" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="12">
+      <c r="I414" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12189,10 +12207,10 @@
       <c r="I416">
         <f>((C416-C415)^2+(D416- D415)^2)^.5</f>
       </c>
-      <c r="J416" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K416" s="12" t="s">
+      <c r="J416" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K416" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L416" t="n">
@@ -12236,28 +12254,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s" s="12">
+      <c r="A418" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B418" t="s" s="12">
+      <c r="B418" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C418" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D418" t="s" s="12">
+      <c r="C418" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D418" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E418" t="s" s="12">
+      <c r="E418" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F418" t="s" s="12">
+      <c r="F418" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G418" t="s" s="12">
+      <c r="G418" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H418" t="s" s="12">
+      <c r="H418" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12282,28 +12300,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="B420" t="s" s="12">
+      <c r="B420" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C420" t="s" s="12">
+      <c r="C420" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D420" t="s" s="12">
+      <c r="D420" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E420" t="s" s="12">
+      <c r="E420" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F420" t="s" s="12">
+      <c r="F420" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G420" t="s" s="12">
+      <c r="G420" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H420" t="s" s="12">
+      <c r="H420" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I420" t="s" s="12">
+      <c r="I420" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12362,10 +12380,10 @@
       <c r="I422">
         <f>((C422-C421)^2+(D422- D421)^2)^.5</f>
       </c>
-      <c r="J422" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K422" s="12" t="s">
+      <c r="J422" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K422" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L422" t="n">
@@ -12409,28 +12427,28 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="s" s="12">
+      <c r="A424" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B424" t="s" s="12">
+      <c r="B424" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C424" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D424" t="s" s="12">
+      <c r="C424" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D424" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E424" t="s" s="12">
+      <c r="E424" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F424" t="s" s="12">
+      <c r="F424" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G424" t="s" s="12">
+      <c r="G424" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H424" t="s" s="12">
+      <c r="H424" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12455,28 +12473,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="B426" t="s" s="12">
+      <c r="B426" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C426" t="s" s="12">
+      <c r="C426" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D426" t="s" s="12">
+      <c r="D426" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E426" t="s" s="12">
+      <c r="E426" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F426" t="s" s="12">
+      <c r="F426" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G426" t="s" s="12">
+      <c r="G426" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H426" t="s" s="12">
+      <c r="H426" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I426" t="s" s="12">
+      <c r="I426" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12593,10 +12611,10 @@
       <c r="I430">
         <f>((C430-C429)^2+(D430- D429)^2)^.5</f>
       </c>
-      <c r="J430" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K430" s="12" t="s">
+      <c r="J430" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K430" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L430" t="n">
@@ -12640,28 +12658,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="s" s="12">
+      <c r="A432" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B432" t="s" s="12">
+      <c r="B432" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C432" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D432" t="s" s="12">
+      <c r="C432" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D432" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E432" t="s" s="12">
+      <c r="E432" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F432" t="s" s="12">
+      <c r="F432" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G432" t="s" s="12">
+      <c r="G432" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H432" t="s" s="12">
+      <c r="H432" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12686,28 +12704,28 @@
       </c>
     </row>
     <row r="434">
-      <c r="B434" t="s" s="12">
+      <c r="B434" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C434" t="s" s="12">
+      <c r="C434" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D434" t="s" s="12">
+      <c r="D434" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E434" t="s" s="12">
+      <c r="E434" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F434" t="s" s="12">
+      <c r="F434" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G434" t="s" s="12">
+      <c r="G434" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H434" t="s" s="12">
+      <c r="H434" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I434" t="s" s="12">
+      <c r="I434" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12795,10 +12813,10 @@
       <c r="I437">
         <f>((C437-C436)^2+(D437- D436)^2)^.5</f>
       </c>
-      <c r="J437" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K437" s="12" t="s">
+      <c r="J437" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K437" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L437" t="n">
@@ -12842,28 +12860,28 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="s" s="12">
+      <c r="A439" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B439" t="s" s="12">
+      <c r="B439" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C439" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D439" t="s" s="12">
+      <c r="C439" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D439" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E439" t="s" s="12">
+      <c r="E439" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F439" t="s" s="12">
+      <c r="F439" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G439" t="s" s="12">
+      <c r="G439" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H439" t="s" s="12">
+      <c r="H439" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12888,28 +12906,28 @@
       </c>
     </row>
     <row r="441">
-      <c r="B441" t="s" s="12">
+      <c r="B441" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C441" t="s" s="12">
+      <c r="C441" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D441" t="s" s="12">
+      <c r="D441" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E441" t="s" s="12">
+      <c r="E441" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F441" t="s" s="12">
+      <c r="F441" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G441" t="s" s="12">
+      <c r="G441" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H441" t="s" s="12">
+      <c r="H441" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I441" t="s" s="12">
+      <c r="I441" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12968,10 +12986,10 @@
       <c r="I443">
         <f>((C443-C442)^2+(D443- D442)^2)^.5</f>
       </c>
-      <c r="J443" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K443" s="12" t="s">
+      <c r="J443" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K443" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L443" t="n">
@@ -13015,28 +13033,28 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="s" s="12">
+      <c r="A445" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B445" t="s" s="12">
+      <c r="B445" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C445" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D445" t="s" s="12">
+      <c r="C445" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D445" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E445" t="s" s="12">
+      <c r="E445" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F445" t="s" s="12">
+      <c r="F445" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G445" t="s" s="12">
+      <c r="G445" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H445" t="s" s="12">
+      <c r="H445" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13061,28 +13079,28 @@
       </c>
     </row>
     <row r="447">
-      <c r="B447" t="s" s="12">
+      <c r="B447" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C447" t="s" s="12">
+      <c r="C447" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D447" t="s" s="12">
+      <c r="D447" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E447" t="s" s="12">
+      <c r="E447" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F447" t="s" s="12">
+      <c r="F447" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G447" t="s" s="12">
+      <c r="G447" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H447" t="s" s="12">
+      <c r="H447" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I447" t="s" s="12">
+      <c r="I447" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13141,10 +13159,10 @@
       <c r="I449">
         <f>((C449-C448)^2+(D449- D448)^2)^.5</f>
       </c>
-      <c r="J449" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K449" s="12" t="s">
+      <c r="J449" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K449" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L449" t="n">
@@ -13188,28 +13206,28 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="s" s="12">
+      <c r="A451" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B451" t="s" s="12">
+      <c r="B451" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C451" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D451" t="s" s="12">
+      <c r="C451" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D451" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E451" t="s" s="12">
+      <c r="E451" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F451" t="s" s="12">
+      <c r="F451" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G451" t="s" s="12">
+      <c r="G451" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H451" t="s" s="12">
+      <c r="H451" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13234,28 +13252,28 @@
       </c>
     </row>
     <row r="453">
-      <c r="B453" t="s" s="12">
+      <c r="B453" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C453" t="s" s="12">
+      <c r="C453" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D453" t="s" s="12">
+      <c r="D453" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E453" t="s" s="12">
+      <c r="E453" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F453" t="s" s="12">
+      <c r="F453" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G453" t="s" s="12">
+      <c r="G453" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H453" t="s" s="12">
+      <c r="H453" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I453" t="s" s="12">
+      <c r="I453" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13314,10 +13332,10 @@
       <c r="I455">
         <f>((C455-C454)^2+(D455- D454)^2)^.5</f>
       </c>
-      <c r="J455" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K455" s="12" t="s">
+      <c r="J455" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K455" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L455" t="n">
@@ -13361,28 +13379,28 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="s" s="12">
+      <c r="A457" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B457" t="s" s="12">
+      <c r="B457" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C457" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D457" t="s" s="12">
+      <c r="C457" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D457" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E457" t="s" s="12">
+      <c r="E457" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F457" t="s" s="12">
+      <c r="F457" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G457" t="s" s="12">
+      <c r="G457" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H457" t="s" s="12">
+      <c r="H457" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -13407,28 +13425,28 @@
       </c>
     </row>
     <row r="459">
-      <c r="B459" t="s" s="12">
+      <c r="B459" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C459" t="s" s="12">
+      <c r="C459" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D459" t="s" s="12">
+      <c r="D459" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E459" t="s" s="12">
+      <c r="E459" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F459" t="s" s="12">
+      <c r="F459" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G459" t="s" s="12">
+      <c r="G459" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H459" t="s" s="12">
+      <c r="H459" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I459" t="s" s="12">
+      <c r="I459" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -13487,10 +13505,10 @@
       <c r="I461">
         <f>((C461-C460)^2+(D461- D460)^2)^.5</f>
       </c>
-      <c r="J461" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K461" s="12" t="s">
+      <c r="J461" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K461" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L461" t="n">
